--- a/src/assets/files/pricelist.xlsx
+++ b/src/assets/files/pricelist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilik\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A9C331-C5FD-4BDE-8F91-6AC25C694E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4647B518-4CE5-43C9-AD76-E8EF7BEC0F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Прейскурант" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="775">
   <si>
     <t>Код</t>
   </si>
@@ -55,6 +55,12 @@
     <t xml:space="preserve">         Цифровое моделирование 3D Smile Design,включая перенос макета (Moke Up) в полость рта, с целью планирования будущей эстетики и функции  (1 единица)</t>
   </si>
   <si>
+    <t>ОРТ-A02.07.006.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Регистрация соотношения зубных рядов</t>
+  </si>
+  <si>
     <t>ОРТ-A02.07.010.013</t>
   </si>
   <si>
@@ -64,7 +70,7 @@
     <t>ОРТ-А02.07.006</t>
   </si>
   <si>
-    <t xml:space="preserve">         Определение центрального соотношения зубных рядов (прикуса)</t>
+    <t xml:space="preserve">         Определение центрального соотношения челюстей с использованием восковых шаблонов</t>
   </si>
   <si>
     <t>ОРТ-А02.07.006.001</t>
@@ -85,6 +91,18 @@
     <t xml:space="preserve">         Изготовление ключа для переноса результата 3D моделирования в полость рта. 1шт. ( включая печать модели)</t>
   </si>
   <si>
+    <t>ОРТ-А02.07.006.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         WAX UP -восковое моделирование планируемой ортопедической конструкции (1 единица) Эстетик +</t>
+  </si>
+  <si>
+    <t>ОРТ-А-02.07.006.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Изготовление ключа для переноса результата WAX UP моделирования в полость рта. 1шт. Эстетик +</t>
+  </si>
+  <si>
     <t>ОРТ-А02.07.010.012</t>
   </si>
   <si>
@@ -211,144 +229,144 @@
     <t xml:space="preserve">      Съемные протезы</t>
   </si>
   <si>
-    <t>ОРТ- А16.07.035.010</t>
+    <t>ОРТ-A16.07.023.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Протезирование зубов полным съемным пластиночным протезом</t>
+  </si>
+  <si>
+    <t>ОРТ-A16.07.023.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Протезирование зубов полным съемным пластиночным протезом с армированием литым базисом</t>
+  </si>
+  <si>
+    <t>ОРТ-A16.07.023.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Протезирование зубов полным съемным пластиночным протезом Acry Free</t>
+  </si>
+  <si>
+    <t>ОРТ-A16.07.035.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Протезирование зубов частичным  пластиночным съемным протезом</t>
+  </si>
+  <si>
+    <t>ОРТ-A16.07.035.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Протезирование зубов  частичным  пластиночным съемным протезом с армированием</t>
+  </si>
+  <si>
+    <t>ОРТ-A16.07.035.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Протезирование зубов малым седловидным съемными протезам для замещения 1-2 отсутствующих зубов (нейлон)</t>
+  </si>
+  <si>
+    <t>ОРТ-A16.07.035.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Протезирование зубов малым седловидным съемными протезам для замещения 3-4 отсутствующих зубов (нейлон)</t>
+  </si>
+  <si>
+    <t>ОРТ-A16.07.036.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Протезирование зубов  съемным бюгельным протезом с кламмерной фиксацией  КХС</t>
+  </si>
+  <si>
+    <t>ОРТ-A16.07.036.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Протезирование зубов съемным бюгельным протезом с эластичным базисом и  кламмерной фиксацией  QuattroTi</t>
+  </si>
+  <si>
+    <t>ОРТ-A16.07.036.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Протезирование съемным бюгельным протезом с замковой фиксацией Bredent</t>
+  </si>
+  <si>
+    <t>ОРТ-A16.07.036.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Протезирование съемным бюгельным протезом с телескопической фиксацией</t>
+  </si>
+  <si>
+    <t>ОРТ-A16.07.037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Постоянное шинирование зубов  цельнолитыми съемными конструкциями при заболеваниях пародонта (шинирующий бюгель )</t>
+  </si>
+  <si>
+    <t>ОРТ-А16.07.021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Коррекция прикуса с использованием съемных и несъемных ортопедических конструкций</t>
+  </si>
+  <si>
+    <t>ОРТ-А16.07.021.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Коррекция прикуса с использованием съемных и несъемных ортопедических конструкций – сплинт</t>
+  </si>
+  <si>
+    <t>ОРТ-А16.07.021.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Коррекция прикуса с использованием съемных и несъемных ортопедических конструкций – каппа</t>
+  </si>
+  <si>
+    <t>ОРТ-А16.07.023.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Изготовление индивидуальной ложки для получения оттиска с уровня имплантата</t>
+  </si>
+  <si>
+    <t>ОРТ-А16.07.023.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Изготовление индивидуальной ложки</t>
+  </si>
+  <si>
+    <t>ОРТ-А16.07.035.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Протезирование зубов частичным съемным протезом из нейлона</t>
+  </si>
+  <si>
+    <t>ОРТ-А-16.07.035.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         ремонт перелома базиза пластикового сьемного протеза</t>
+  </si>
+  <si>
+    <t>ОРТ-А-16.07.035.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         ремонт ( приварка 1-2 зубов в базиз ) сьемного  протеза</t>
+  </si>
+  <si>
+    <t>ОРТ-А-16.07.035.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         ремонт ( приварка 3-5 зубов в базис )сьемного протеза</t>
+  </si>
+  <si>
+    <t>ОРТ-А-16.07.035.009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         перебазировка базиса сьемного протеза</t>
+  </si>
+  <si>
+    <t>ОРТ-А16.07.035.010</t>
   </si>
   <si>
     <t xml:space="preserve">         Протезирование зубов частичным пластиночным протезом Acry Free</t>
   </si>
   <si>
-    <t>ОРТ-A16.07.023.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Протезирование зубов полным съемным пластиночным протезом</t>
-  </si>
-  <si>
-    <t>ОРТ-A16.07.023.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Протезирование зубов полным съемным пластиночным протезом с армированием литым базисом</t>
-  </si>
-  <si>
-    <t>ОРТ-A16.07.023.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Протезирование зубов полным съемным пластиночным протезом Acry Free</t>
-  </si>
-  <si>
-    <t>ОРТ-A16.07.035.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Протезирование зубов частичным  пластиночным съемным протезом</t>
-  </si>
-  <si>
-    <t>ОРТ-A16.07.035.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Протезирование зубов  частичным  пластиночным съемным протезом с армированием</t>
-  </si>
-  <si>
-    <t>ОРТ-A16.07.035.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Протезирование зубов малым седловидным съемными протезам для замещения 1-2 отсутствующих зубов (нейлон)</t>
-  </si>
-  <si>
-    <t>ОРТ-A16.07.035.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Протезирование зубов малым седловидным съемными протезам для замещения 3-4 отсутствующих зубов (нейлон)</t>
-  </si>
-  <si>
-    <t>ОРТ-A16.07.036.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Протезирование зубов  съемным бюгельным протезом с кламмерной фиксацией  КХС</t>
-  </si>
-  <si>
-    <t>ОРТ-A16.07.036.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Протезирование зубов съемным бюгельным протезом с эластичным базисом и  кламмерной фиксацией  QuattroTi</t>
-  </si>
-  <si>
-    <t>ОРТ-A16.07.036.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Протезирование съемным бюгельным протезом с замковой фиксацией Bredent</t>
-  </si>
-  <si>
-    <t>ОРТ-A16.07.036.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Протезирование съемным бюгельным протезом с телескопической фиксацией</t>
-  </si>
-  <si>
-    <t>ОРТ-A16.07.037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Постоянное шинирование зубов  цельнолитыми съемными конструкциями при заболеваниях пародонта (шинирующий бюгель )</t>
-  </si>
-  <si>
-    <t>ОРТ-А16.07.021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Коррекция прикуса с использованием съемных и несъемных ортопедических конструкций</t>
-  </si>
-  <si>
-    <t>ОРТ-А16.07.021.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Коррекция прикуса с использованием съемных и несъемных ортопедических конструкций – сплинт</t>
-  </si>
-  <si>
-    <t>ОРТ-А16.07.021.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Коррекция прикуса с использованием съемных и несъемных ортопедических конструкций – каппа</t>
-  </si>
-  <si>
-    <t>ОРТ-А16.07.023.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Изготовление индивидуальной ложки для получения оттиска с уровня имплантата</t>
-  </si>
-  <si>
-    <t>ОРТ-А16.07.023.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Изготовление индивидуальной ложки</t>
-  </si>
-  <si>
-    <t>ОРТ-А16.07.035.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Протезирование зубов частичным съемным протезом из нейлона</t>
-  </si>
-  <si>
-    <t>ОРТ-А-16.07.035.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         ремонт перелома базиза пластикового сьемного протеза</t>
-  </si>
-  <si>
-    <t>ОРТ-А-16.07.035.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         ремонт ( приварка 1-2 зубов в базиз ) сьемного  протеза</t>
-  </si>
-  <si>
-    <t>ОРТ-А-16.07.035.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         ремонт ( приварка 3-5 зубов в базис )сьемного протеза </t>
-  </si>
-  <si>
-    <t>ОРТ-А-16.07.035.009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         перебазировка базиса сьемного протеза </t>
-  </si>
-  <si>
     <t>ОРТ-04</t>
   </si>
   <si>
@@ -358,16 +376,19 @@
     <t>ОРТ-04.01</t>
   </si>
   <si>
-    <t xml:space="preserve">         Стоимость 1-го локатора для съемного протеза</t>
+    <t xml:space="preserve">         Стоимость 1-го локатора Straumann для съемного протеза</t>
   </si>
   <si>
     <t>ОРТ-04.02</t>
   </si>
   <si>
+    <t xml:space="preserve">         Стоимость 1-го локатора Osstem для съемного протеза</t>
+  </si>
+  <si>
     <t>ОРТ-A16.07.023.004</t>
   </si>
   <si>
-    <t xml:space="preserve">         Протезирование зубов полным съемным пластиночным протезом  с опорой на имплантаты на 4 х локаторах Novaloc</t>
+    <t xml:space="preserve">         Протезирование зубов полным съемным пластиночным протезом  с опорой на имплантаты на 2х- 4 х локаторах Novaloc</t>
   </si>
   <si>
     <t xml:space="preserve">         Протезирование зубов полными съемными пластиночными протезами (1 челюсть) с опорой на имплантаты на фрезерованной балке</t>
@@ -379,7 +400,7 @@
     <t xml:space="preserve">         Восстановление целостности зубного ряда условно съемным протезом из акрила с винтовой фиксацией (10-14 единиц)</t>
   </si>
   <si>
-    <t xml:space="preserve">         Протезирование зубов полным съемным пластиночным протезом  с опорой на имплантаты на 2 х локаторах Novaloc</t>
+    <t xml:space="preserve">         Протезирование зубов полным съемным пластиночным армированным протезом  с опорой на имплантаты на 2 х - 4х локаторах Novaloc</t>
   </si>
   <si>
     <t>ОРТ-А02.07.010</t>
@@ -484,6 +505,12 @@
     <t xml:space="preserve">         винир  полно анатомический ЕМах облицованный керамикой</t>
   </si>
   <si>
+    <t>ОРТ-А16.07.003.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         винир  полно анатомический ЕМах облицованный керамикой Эстетик +</t>
+  </si>
+  <si>
     <t>ОРТ-А16.07.004</t>
   </si>
   <si>
@@ -547,7 +574,7 @@
     <t>ОРТ-A16.07.004.010</t>
   </si>
   <si>
-    <t xml:space="preserve">         цельнолитая  культевая  вкладка  , облицованная керамикой ЕМах</t>
+    <t xml:space="preserve">         цельнолитая  культевая  вкладка  ,с керамической культевой частью ЕМах</t>
   </si>
   <si>
     <t>ОРТ-A16.07.004.011</t>
@@ -613,7 +640,7 @@
     <t>ОРТ-А16.07.004.021</t>
   </si>
   <si>
-    <t xml:space="preserve">         коронка металлокерамическая КХС с керамическим плечом</t>
+    <t xml:space="preserve">         коронка металлокерамическая КХС изготовленная в лаборатории Эстетик +</t>
   </si>
   <si>
     <t>ОРТ-А16.07.004.022</t>
@@ -688,6 +715,54 @@
     <t xml:space="preserve">         коронка  анатомическая ZrO2 Multilayer CAD CAM с винтовой фиксацией и керамической облицовкой ,для имплантата ( включая винт и платформу) платформа Variobase Straumann</t>
   </si>
   <si>
+    <t>ОРТ-А16.07.004.036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         коронка  анатомическая ЕМах облицованная керамикой изготовленная в лаборатории Эстетик+</t>
+  </si>
+  <si>
+    <t>ОРТ-А16.07.004.037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         коронка анатомическая ZrO2 Multilayer CAD CAM облицованная керамикой Эстетик +</t>
+  </si>
+  <si>
+    <t>ОРТ-А16.07.004.038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         коронка временная РММА фрезерованная Эстетик +</t>
+  </si>
+  <si>
+    <t>ОРТ-А16.07.004.039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         коронка временная РММА для имплантата  ( включая винт и платформу )</t>
+  </si>
+  <si>
+    <t>ОРТ-А16.07.004.045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         коронка полно анатомическая ZrO2 SuperfectZir CAD CAM с винтовой фиксацией для имплантата ( включая винт и платформу) платформа Osstem</t>
+  </si>
+  <si>
+    <t>ОРТ-А16.07.004.046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         коронка полно анатомическая ZrO2 Multilayer CAD CAM с винтовой фиксацией для имплантата ( включая винт и платформу) платформа Osstem</t>
+  </si>
+  <si>
+    <t>ОРТ-А16.07.004.047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         коронка  анатомическая ZrO2 SuperfectZir CAD CAM с винтовой фиксацией и керамической облицовкой ,для имплантата ( включая винт и платформу)  платформа Osstem</t>
+  </si>
+  <si>
+    <t>ОРТ-А16.07.004.048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         коронка  анатомическая ZrO2 Multilayer CAD CAM с винтовой фиксацией и керамической облицовкой ,для имплантата ( включая винт и платформу) платформа Osstem</t>
+  </si>
+  <si>
     <t>КНС</t>
   </si>
   <si>
@@ -733,13 +808,13 @@
     <t>КНС-B01.065.005</t>
   </si>
   <si>
-    <t xml:space="preserve">      Прием (осмотр, консультация) гигиениста стоматологического первичный</t>
+    <t xml:space="preserve">      Прием (осмотр, консультация) врача- стоматолога общей практики первичный</t>
   </si>
   <si>
     <t>КНС-B01.065.006</t>
   </si>
   <si>
-    <t xml:space="preserve">      Прием (осмотр, консультация) гигиениста стоматологического повторный</t>
+    <t xml:space="preserve">      Прием (осмотр, консультация) врача- стоматолога общей практики повторный</t>
   </si>
   <si>
     <t>КНС-B01.065.007</t>
@@ -814,36 +889,42 @@
     <t xml:space="preserve">         Установка формирователя десны Straumann</t>
   </si>
   <si>
+    <t>ХР-A16.07.054.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Внутрикостная дентальная имплантация системы Anthogyr</t>
+  </si>
+  <si>
+    <t>ХР-A16.07.054.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Внутрикостная дентальная имплантация системы Osstem</t>
+  </si>
+  <si>
+    <t>ХР-A16.07.054.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Установка формирователя десны</t>
+  </si>
+  <si>
     <t>ХР-А16.07.054.005</t>
   </si>
   <si>
     <t xml:space="preserve">         Установка индивидуализированного ( по контуру прорезывания ) формирователя десны</t>
   </si>
   <si>
+    <t>ХР-А16.07.054.009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Удаление имплантата</t>
+  </si>
+  <si>
     <t>ХР-02</t>
   </si>
   <si>
     <t xml:space="preserve">      Пародонтология хирургическая</t>
   </si>
   <si>
-    <t>ХР-А11.07.010.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Лоскутная операция в области однокорневого зуба</t>
-  </si>
-  <si>
-    <t>ХР-А11.07.010.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Лоскутная операция в области многокорневого зуба</t>
-  </si>
-  <si>
-    <t>ХР-А11.07.010.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Пластика рецессии десны</t>
-  </si>
-  <si>
     <t>ХР-А11.07.010.004</t>
   </si>
   <si>
@@ -910,6 +991,15 @@
     <t xml:space="preserve">      Наложение повязки при операциях в полости рта</t>
   </si>
   <si>
+    <t xml:space="preserve">      Наложение повязки при операциях в полости рта (СтимулОсс)</t>
+  </si>
+  <si>
+    <t>ХР-А15.07.002.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Наложение повязки при операциях в полости рта (Resorba)</t>
+  </si>
+  <si>
     <t>ХР-А16.07.001</t>
   </si>
   <si>
@@ -946,6 +1036,18 @@
     <t xml:space="preserve">      Удаление подвижного зуба ( 3 степ подвижности)</t>
   </si>
   <si>
+    <t>ХР-А16.07.001.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Удаление корня зуба ( 3 степ подвижности )</t>
+  </si>
+  <si>
+    <t>ХР-А16.07.001.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Удаление корня зуба</t>
+  </si>
+  <si>
     <t>ХР-А16.07.007</t>
   </si>
   <si>
@@ -1003,7 +1105,7 @@
     <t>ХР-А16.07.026</t>
   </si>
   <si>
-    <t xml:space="preserve">      Гингивэктомия</t>
+    <t xml:space="preserve">      Гингивэктомия,в тч контурирование десневого контура в эстетических целях</t>
   </si>
   <si>
     <t>ХР-А16.07.038</t>
@@ -1027,7 +1129,7 @@
     <t>ХР-А16.07.041</t>
   </si>
   <si>
-    <t xml:space="preserve">      Костная пластика челюстно-лицевой области</t>
+    <t xml:space="preserve">      Пластика малого костного дефекта при имплатации,включая остеопластический материал.</t>
   </si>
   <si>
     <t>ХР-А16.07.041.001</t>
@@ -1036,6 +1138,12 @@
     <t xml:space="preserve">      Направленная костная регенерация в обл удаленного зуба при одномоментной имплантации с учетом остеопластического материала.</t>
   </si>
   <si>
+    <t>ХР-А16.07.041.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Направленная костная регенерация в обл удаленного зуба с учетом остеопластического материала.</t>
+  </si>
+  <si>
     <t>ХР-А16.07.042</t>
   </si>
   <si>
@@ -1060,12 +1168,6 @@
     <t xml:space="preserve">      Вестибулопластика</t>
   </si>
   <si>
-    <t>ХР-А16.07.055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Синус-лифтинг (костная пластика, остеопластика)</t>
-  </si>
-  <si>
     <t>ХР-А16.07.055.001</t>
   </si>
   <si>
@@ -1105,7 +1207,7 @@
     <t>ХР-А16.07.063</t>
   </si>
   <si>
-    <t xml:space="preserve">      сошлифовывание экзостоза механическое .верхняя/нижняя челюсть</t>
+    <t xml:space="preserve">      сошлифовывание одного экзостоза механическое .верхняя или нижняя челюсть</t>
   </si>
   <si>
     <t>ХР-А16.07.089</t>
@@ -1138,12 +1240,6 @@
     <t xml:space="preserve">      Наложение шва на слизистую оболочку рта</t>
   </si>
   <si>
-    <t>ХР-ХР-А16.07.001.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Удаление корня зуба ( 3 степ подвижности )</t>
-  </si>
-  <si>
     <t>РНТГ</t>
   </si>
   <si>
@@ -1276,24 +1372,12 @@
     <t xml:space="preserve">         Постановка прокладки самополимеризующейся ( СИЦ,Лак)</t>
   </si>
   <si>
-    <t>ТР-А16.07.002.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Постановка прокладки фотополимеризующейся (СИЦ,Лак)</t>
-  </si>
-  <si>
     <t>ТР-А16.07.002.006</t>
   </si>
   <si>
     <t xml:space="preserve">         Постановка лечебной прокладки (химического или светоотверждения)</t>
   </si>
   <si>
-    <t>ТР-А16.07.002.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Пломбирование полости пломбой из композита светового отверждения</t>
-  </si>
-  <si>
     <t>ТР-А16.07.002.009</t>
   </si>
   <si>
@@ -1303,7 +1387,7 @@
     <t>ТР-А16.07.002.010</t>
   </si>
   <si>
-    <t xml:space="preserve">         Пломбирование полости пломбой из СИЦ</t>
+    <t xml:space="preserve">         Пломбирование  полости   пломбой из композита светового отверждения ( 1 поверхность ).</t>
   </si>
   <si>
     <t>ТР-А16.07.002.011</t>
@@ -1312,12 +1396,6 @@
     <t xml:space="preserve">         Герметизация фиссур 1-го зуба фотополимеризующимся композитом</t>
   </si>
   <si>
-    <t>ТР-А16.07.002.012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Пломбирование полости пломбой из компомерного материала</t>
-  </si>
-  <si>
     <t>ТР-А16.07.002.013</t>
   </si>
   <si>
@@ -1360,6 +1438,18 @@
     <t xml:space="preserve">         Восстановление культевой части зуба с применением стекловолоконного штифта, в целях дальнейшего протезирования</t>
   </si>
   <si>
+    <t>ТР-А16.07.002.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Эстетико-функциональное восстановление зуба боковой группы</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.002.023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Эстетико-функциональное восстановление зуба фронтальной группы</t>
+  </si>
+  <si>
     <t>ТР-02</t>
   </si>
   <si>
@@ -1384,580 +1474,826 @@
     <t xml:space="preserve">         Извлечение внутриканального стекловолоконного  штифта</t>
   </si>
   <si>
-    <t>ТР-А11.07.027</t>
+    <t>ТР-А16.07.008.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Пломбирование 1-го корневого канала зуба пастой</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.008.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Пломбирование 1-го корневого канала зуба гуттаперчевыми штифтами</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.008.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Пломбирование 1-го корневого канала зуба горячей гуттаперчей методом вертикальной конденсации</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.008.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Временное пломбирование 1-го корневого канала зуба кальцийсодержащей пастой</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.008.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Внутриканальное отбеливание измененного в цвете зуба</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.008.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Закрытие перфорации стенки корневого канала зуба (Pro-root)</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.008.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Измерение длины корневого канала с помощью Апекс-Локатора</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.030.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Ручная инструментальная обработка 1-го корневого канала</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.030.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Машинная инструментальная обработка 1-го корневого канала (электро эндо-мотор)</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.030.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Ручная инструментальная обработка 1-го плохо проходимого корневого канала</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Временное пломбирование лекарственным препаратом корневого канала</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.030.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Машинная инструментальная обработка 1-го плохо проходимого корневого канала (электро эндо-мотор)</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.030.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Обработка 1-го  корневого канала ультразвуковым инструментом</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.030.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Медикаментозная обработка 1-го корневого канала</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.030.010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Инструментальная и медикаментозная обработка 1-го корневого канала.</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.082.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Распломбировка 1-го корневого канала ранее леченного пастой</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.082.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Распломбировка 1-го корневого канала ранее леченного фосфат- цементом/ резорцин-формальдегидным методом</t>
+  </si>
+  <si>
+    <t>ТР-А17.07.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Депофорез корневого канала зуба</t>
+  </si>
+  <si>
+    <t>ТР-А22.07.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Ультразвуковое расширение 1-го корневого канала зуба</t>
+  </si>
+  <si>
+    <t>ТР-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Временные пломбы</t>
+  </si>
+  <si>
+    <t>ТР-A16.07.002.009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Наложение временной пломбы</t>
+  </si>
+  <si>
+    <t>ТР-A16.07.002.010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Наложение временной пломбы ( фотополимер)</t>
+  </si>
+  <si>
+    <t>ТР-A16.07.091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Снятие временной пломбы</t>
+  </si>
+  <si>
+    <t>ТР-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Шинирование зубов и каппы</t>
+  </si>
+  <si>
+    <t>ТР-A16.07.019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Временное шинирование при заболеваниях пародонта (1 единица)</t>
+  </si>
+  <si>
+    <t>ТР-А23.07.002.043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Изготовление боксерской каппы</t>
+  </si>
+  <si>
+    <t>ТР-А23.07.002.065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Изготовление элайнера</t>
+  </si>
+  <si>
+    <t>ТР-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Пародонтология терапевтическая</t>
+  </si>
+  <si>
+    <t>ТР-А02.07.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Исследование зубодесневых карманов с помощью пародонтологического зонда</t>
+  </si>
+  <si>
+    <t>ТР-А11.07.010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Введение лекарственных препаратов в пародонтальный карман</t>
+  </si>
+  <si>
+    <t>ТР-А15.07.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Наложение лечебной повязки при заболеваниях слизистой оболочки полости рта и пародонта в области одной челюсти</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.020.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Удаление наддесневых и поддесневых зубных отложений в области зуба ручным методом (КЮРЕТАЖ)</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.051.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Применение  Air-Flow</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.051.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Профессиональное отбеливание зубов ( ZOOM 4)</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.051.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Отбеливание зубов в домашних условиях ( ZOOM ,комплект материалов +обучение)</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.051.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Отбеливание Opalescence Boost 1-го зуба</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.051.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Отбеливание Opalescence Boost 6 зубов</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.051.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Реминерализация зуба в клинических условиях</t>
+  </si>
+  <si>
+    <t>ТР-А16.07.051.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Удаление зубного налета и полировка зубов с помощью специализированного вращающегося инструмента</t>
+  </si>
+  <si>
+    <t>ТР-А20.07.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Гидроорошение при заболевании полости рта и зубов</t>
+  </si>
+  <si>
+    <t>ТР-А22.07.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Ультразвуковая обработка пародонтального кармана в области зуба</t>
+  </si>
+  <si>
+    <t>ТР-А22.07.002.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Ультразвуковое удаление наддесневых и поддесневых зубных отложений . (сегмент 4-6 зубов)</t>
+  </si>
+  <si>
+    <t>ТР-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Лечение пульпита,периодонтита</t>
+  </si>
+  <si>
+    <t>ТР-К04.01.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Лечение пульпита 1 канального зуба(вкл ручную,механическую и медикаментозную обработку,апекслокатор,временную пломбу и постоянную пломбировку канала)</t>
+  </si>
+  <si>
+    <t>ТР-К04.01.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Лечение пульпита 2х канального зуба(вкл ручную,механическую и медикаментозную обработку,апекслокатор,временную пломбу и постоянную пломбировку каналов)</t>
+  </si>
+  <si>
+    <t>ТР-К04.01.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Лечение пульпита 3х канального зуба(вкл ручную,механическую и медикаментозную обработку,апекслокатор,временную пломбу и постоянную пломбировку каналов)</t>
+  </si>
+  <si>
+    <t>ТР-К04.01.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Лечение пульпита 4х канального зуба(вкл ручную,механическую и медикаментозную обработку,апекслокатор,временную пломбу и постоянную пломбировку каналов)</t>
+  </si>
+  <si>
+    <t>ТР-К04.05.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Лечение периодонтита 1 канального зуба( вкл ручную,механическую,ультразвуковую и медикаментозную обработку,апекслокатор,временную пломбу,временную и постоянную пломбировку канала) за 2 приема</t>
+  </si>
+  <si>
+    <t>ТР-К04.05.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Лечение периодонтита 2х канального зуба( вкл ручную,механическую,ультразвуковую и медикаментозную обработку,апекслокатор,временную пломбу,временную и постоянную пломбировку каналов) за 2 приема</t>
+  </si>
+  <si>
+    <t>ТР-К04.05.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Лечение периодонтита 3х канального зуба( вкл ручную,механическую,ультразвуковую и медикаментозную обработку,апекслокатор,временную пломбу,временную и постоянную пломбировку каналов) за 2 приема</t>
+  </si>
+  <si>
+    <t>ТР-К04.05.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Лечение периодонтита 4х канального зуба( вкл ручную,механическую,ультразвуковую и медикаментозную обработку,апекслокатор,временную пломбу,временную и постоянную пломбировку каналов) за 2 приема</t>
+  </si>
+  <si>
+    <t>АНСТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Анестезия и  инъекции</t>
+  </si>
+  <si>
+    <t>АНСТ-B01.003.004.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Местная анестезия интралигаментарная</t>
+  </si>
+  <si>
+    <t>АНСТ-B01.003.004.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Проводниковая анестезия</t>
+  </si>
+  <si>
+    <t>АНСТ-B01.003.004.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ирригационная анестезия</t>
+  </si>
+  <si>
+    <t>АНСТ-B01.003.004.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Аппликационная анестезия</t>
+  </si>
+  <si>
+    <t>АНСТ-B01.003.004.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Инфильтрационная анестезия</t>
+  </si>
+  <si>
+    <t>АНСТ-А11.12.009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Взятие крови из переферической вены. В хирургических целях.</t>
+  </si>
+  <si>
+    <t>АНСТ-В01.003.004.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Антигистаминная подготовка</t>
+  </si>
+  <si>
+    <t>АНСТ-В01.003.004.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Внутримышечное введение обезболивающих и противовоспалительных препаратов</t>
+  </si>
+  <si>
+    <t>ОРД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Ортодонтия</t>
+  </si>
+  <si>
+    <t>ОРД-A02.07.004.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Описание и интерпретация рентгенографических изображений ТРГ (1 снимок)</t>
+  </si>
+  <si>
+    <t>ОРД-A16.07.028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ортодонтическая коррекция Активация системы (смена дуги)</t>
+  </si>
+  <si>
+    <t>ОРД-A16.07.046.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ортодонтическая коррекция пластиночным одночелюстным ортодонтическим аппаратом с винтом</t>
+  </si>
+  <si>
+    <t>ОРД-A16.07.046.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ортодонтическая коррекция съемным аппаратом LM трейнер</t>
+  </si>
+  <si>
+    <t>ОРД-A16.07.046.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ортодонтическая коррекция  одночелюстным ортодонтическим аппаратом 2/4 D-Gainer</t>
+  </si>
+  <si>
+    <t>ОРД-A16.07.047.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ортодонтическая коррекция несъемным ортодонтическим аппаратом HAAS (вклюая его изготовление и установку)</t>
+  </si>
+  <si>
+    <t>ОРД-A16.07.047.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ортодонтическая коррекция несъемным ортодонтическим аппаратом HAAS ( АКТИВАЦИЯ И НАБЛЮДЕНИЕ)</t>
+  </si>
+  <si>
+    <t>ОРД-A16.07.047.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Фиксация ретейнера</t>
+  </si>
+  <si>
+    <t>ОРД-A16.07.047.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Динамическое наблюдение на этапах ортодонтичского лечения</t>
+  </si>
+  <si>
+    <t>ОРД-A16.07.048.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ортодонтическая коррекция (фиксация) с применением брекет-системы металлической Damon Q H4 на  один зубной ряд</t>
+  </si>
+  <si>
+    <t>ОРД-A16.07.048.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ортодонтическая коррекция (фиксация) с применением брекет-системы керамической Damon Clear на один зубной ряд</t>
+  </si>
+  <si>
+    <t>ОРД-A16.07.048.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ортодонтическая коррекция с применением брекет-системы металлической Damon Q H4 за весь курс лечения 1 кат сложности</t>
+  </si>
+  <si>
+    <t>ОРД-A16.07.048.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ортодонтическая коррекция с применением брекет-системы металлической Damon Q H4 за весь курс лечения 2 кат сложности</t>
+  </si>
+  <si>
+    <t>ОРД-A16.07.048.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ортодонтическая коррекция с применением брекет-системы керамической Damon за весь курс лечения 1 кат сложности</t>
+  </si>
+  <si>
+    <t>ОРД-A16.07.048.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ортодонтическая коррекция с применением брекет-системы керамической Damon за весь курс лечения 2 кат сложности</t>
+  </si>
+  <si>
+    <t>ОРД-А.16.07.048.011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Фиксация одного брекета ,щёчной трубки</t>
+  </si>
+  <si>
+    <t>ОРД-А.16.07.048.016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Лечение на элайнерах  Еврокаппа ( полная коорекция прикуса )</t>
+  </si>
+  <si>
+    <t>ОРД-А16.07.047.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Починка ретейнера (1 звено)</t>
+  </si>
+  <si>
+    <t>ОРД-А16.07.047.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Коррекция ортодонтического аппарата ( пластинки ) изготовленной в другом ЛПУ</t>
+  </si>
+  <si>
+    <t>ОРД-А16.07.048.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Комбинированные самолигирующие Damon Clear ( на верх  ) Damon Q ,H4 (на нижнюю челюсть ) 1 категория сложности</t>
+  </si>
+  <si>
+    <t>ОРД-А16.07.048.009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Комбинированные самолигирующие Damon Clear( на верх ) Damon Q ,H4 (на нижнюю челюсть ) 2 категория сложности</t>
+  </si>
+  <si>
+    <t>ОРД-А16.07.048.010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Фиксация ортодонтической кнопки</t>
+  </si>
+  <si>
+    <t>ОРД-А16.07.048.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Фиксация эластического элемента (лигатура, кольцо,1 звено цепочки )</t>
+  </si>
+  <si>
+    <t>ОРД-А16.07.048.013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Лечение с использованием лицевой маски ( Включая припасовку , наложение лицевой маски и обучение пользованием аппаратом )</t>
+  </si>
+  <si>
+    <t>ОРД-А16.07.048.014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Изготовление пластиночного аппарата на верхнюю челюсть с крючками  ( без винта)</t>
+  </si>
+  <si>
+    <t>ОРД-А16.07.048.015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Диагностика ( слепки , фотографии, антропометрический расчёт моделей)</t>
+  </si>
+  <si>
+    <t>ОРД-А16.07.048.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Снятие брекет системы с одного зубного ряда</t>
+  </si>
+  <si>
+    <t>ОРД-А16.07.048.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Изменение пложения зуба ( до 2х зубов ,с помощью 1 го мини винта ) в целях рационального протезирования.</t>
+  </si>
+  <si>
+    <t>ОРД-А16.07.048.021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Изменение пложения зуба ( до 4х зубов ,с помощью 1 го мини винта ) в целях рационального протезирования.</t>
+  </si>
+  <si>
+    <t>ОРД-А16.07.048.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Изменение пложения зуба ( до 5х зубов ,с помощью 2х  мини винтов ) в целях рационального протезирования.</t>
+  </si>
+  <si>
+    <t>ОРД-А16.07047.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Снятие ретейнера</t>
+  </si>
+  <si>
+    <t>ПРФ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Профилактика</t>
+  </si>
+  <si>
+    <t>ПРФ-А11.07.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Глубокое фторирование эмали зуба</t>
+  </si>
+  <si>
+    <t>ПРФ-А11.07.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Аппликация лекарственного препарата на слизистую оболочку полости рта</t>
+  </si>
+  <si>
+    <t>ПРФ-А11.07.024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Местное применение реминерализующих препаратов в области зуба</t>
+  </si>
+  <si>
+    <t>ПРФ-А14.07.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Обучение гигиене полости рта и зубов индивидуальное, подбор средств и предметов гигиены полости рта</t>
+  </si>
+  <si>
+    <t>ПРФ-А16.07.051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Профессиональная гигиена полости рта и зубов 1 кат</t>
+  </si>
+  <si>
+    <t>ПРФ-А16.07.052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Снятие твердых и мягких зубных отложений с помощью ультразвукового скейлера,полировка . ( 1 сегмент ).</t>
+  </si>
+  <si>
+    <t>ПРФ-А16.07.057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Запечатывание фиссуры зуба герметиком</t>
+  </si>
+  <si>
+    <t>ПРФ-А-16.07.058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Профессиональная гигиена одной челюсти ,  в т ч при ортодонтическом лечении.</t>
+  </si>
+  <si>
+    <t>ПРФ-А16.07.059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Профессиональная гигиена полости рта и зубов 2 кат</t>
+  </si>
+  <si>
+    <t>ПРФ-А22.07.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ультразвуковое удаление наддесневых и поддесневых зубных отложений,AirFlow ,полировка, в области зубов одной челюсти</t>
+  </si>
+  <si>
+    <t>ПРФ-В04.070.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Школа психологической профилактики для пациентов и родственников (адаптивный прием)</t>
+  </si>
+  <si>
+    <t>ДТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Терапия детская</t>
+  </si>
+  <si>
+    <t>ДТ-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Профилактика</t>
+  </si>
+  <si>
+    <t>ДТ-А03.07.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Люминесцентная стоматоскопия</t>
+  </si>
+  <si>
+    <t>ДТ-А03.07.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Транс Люминесцентная стоматоскопия</t>
+  </si>
+  <si>
+    <t>ДТ-А11.07.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Глубокое фторирование эмали зуба</t>
+  </si>
+  <si>
+    <t>ДТ-А11.07.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Аппликация лекарственного препарата на слизистую оболочку полости рта</t>
+  </si>
+  <si>
+    <t>ДТ-А11.07.024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Местное применение реминерализующих препаратов в области зуба</t>
+  </si>
+  <si>
+    <t>ДТ-А12.07.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Витальное окрашивание твердых тканей зуба</t>
+  </si>
+  <si>
+    <t>ДТ-А14.07.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Обучение гигиене полости рта и зубов индивидуальное, подбор средств и предметов гигиены полости рта</t>
+  </si>
+  <si>
+    <t>ДТ-А16.07.051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Профессиональная гигиена полости рта и зубов ( сменный прикус ) без УЗ. Включая все манипуляции и материалы</t>
+  </si>
+  <si>
+    <t>ДТ-А16.07.052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Профессиональная гигиена полости рта и зубов ( сменный прикус ) с УЗ. Включая все манипуляции и материалы</t>
+  </si>
+  <si>
+    <t>ДТ-А16.07.057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Запечатывание фиссуры зуба герметиком</t>
+  </si>
+  <si>
+    <t>ДТ-А25.07.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Назначение диетического питания при заболеваниях полости рта и зубов</t>
+  </si>
+  <si>
+    <t>ДТ-А25.07.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Назначение лечебно-оздоровительного режима при заболеваниях полости рта и зубов</t>
+  </si>
+  <si>
+    <t>ДТ-В04.070.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Школа психологической профилактики для пациентов и родственников (адаптивный прием)</t>
+  </si>
+  <si>
+    <t>ДТ-В04.070.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Выдача врачём стоматологом , втч детским , справки о санации полости рта ( при условии полной санации) , включая инструментальный и визуальный осмотр</t>
+  </si>
+  <si>
+    <t>ДТ-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Восстановление временного зуба пломбой</t>
+  </si>
+  <si>
+    <t>ДТ-A16.07.082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Сошлифовывание твердых тканей зуба временного  при лечении кариеса и его осложнений</t>
+  </si>
+  <si>
+    <t>ДТ-А16.07.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Восстановление зуба временного пломбой</t>
+  </si>
+  <si>
+    <t>ДТ-А16.07.002.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Восстановление зуба с использованием стоматологических цементов (временный зуб)</t>
+  </si>
+  <si>
+    <t>ДТ-А16.07.002.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Восстановление зуба временного ,  пломбой с нарушением контактного пункта  с использованием стоматологических цементов</t>
+  </si>
+  <si>
+    <t>ДТ-А16.07.002.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Восстановление зуба временного , пломбой  с использованием стеклоиономерных цементов</t>
+  </si>
+  <si>
+    <t>ДТ-А16.07.002.009</t>
+  </si>
+  <si>
+    <t>ДТ-А16.07.002.010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Восстановление зуба временного ,пломбой  с использованием материалов из фотополимеров</t>
+  </si>
+  <si>
+    <t>ДТ-А16.07.002.011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Восстановление зуба временного ,  пломбой с нарушением контактного пункта  с использованием материалов из фотополимеров</t>
+  </si>
+  <si>
+    <t>ДТ-А16.07.002.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Восстановление зуба временного  пломбой IV класс по Блэку с использованием материалов из фотополимеров</t>
+  </si>
+  <si>
+    <t>ДТ-А16.07.002.013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Восстановление постоянного зуба с использованием материалов из фотополимеров</t>
+  </si>
+  <si>
+    <t>ДТ-А16.07.002.014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Эстетическая реставрация зуба , пациенту детского возраста</t>
+  </si>
+  <si>
+    <t>ДТ-А16.07.002.015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Коронка стандартная металлическая для покрытия временного зуба</t>
+  </si>
+  <si>
+    <t>ДТ-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Лечение осложнений кариеса временных зубов (эндодонтическое лечение корневых каналов)</t>
+  </si>
+  <si>
+    <t>ДТ-A16.07.009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         ленчение пульпита  временного зуба (включая постоянную пломбу,все манипуляции и материалы ).</t>
+  </si>
+  <si>
+    <t>ДТ-A16.07.010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Экстирпация пульпы</t>
+  </si>
+  <si>
+    <t>ДТ-А11.07.027</t>
   </si>
   <si>
     <t xml:space="preserve">         Наложение девитализирующей пасты</t>
   </si>
   <si>
-    <t>ТР-А16.07.008</t>
+    <t>ДТ-А16.07.008</t>
   </si>
   <si>
     <t xml:space="preserve">         Пломбирование корневого канала зуба</t>
-  </si>
-  <si>
-    <t>ТР-А16.07.008.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Пломбирование 1-го корневого канала зуба пастой</t>
-  </si>
-  <si>
-    <t>ТР-А16.07.008.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Пломбирование 1-го корневого канала зуба гуттаперчевыми штифтами</t>
-  </si>
-  <si>
-    <t>ТР-А16.07.008.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Пломбирование 1-го корневого канала зуба горячей гуттаперчей методом вертикальной конденсации</t>
-  </si>
-  <si>
-    <t>ТР-А16.07.008.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Временное пломбирование 1-го корневого канала зуба кальцийсодержащей пастой</t>
-  </si>
-  <si>
-    <t>ТР-А16.07.008.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Внутриканальное отбеливание измененного в цвете зуба</t>
-  </si>
-  <si>
-    <t>ТР-А16.07.008.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Закрытие перфорации стенки корневого канала зуба (Pro-root)</t>
-  </si>
-  <si>
-    <t>ТР-А16.07.008.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Измерение длины корневого канала с помощью Апекс-Локатора</t>
-  </si>
-  <si>
-    <t>ТР-А16.07.030.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Ручная инструментальная обработка 1-го корневого канала</t>
-  </si>
-  <si>
-    <t>ТР-А16.07.030.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Машинная инструментальная обработка 1-го корневого канала (электро эндо-мотор)</t>
-  </si>
-  <si>
-    <t>ТР-А16.07.030.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Ручная инструментальная обработка 1-го плохо проходимого корневого канала</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Временное пломбирование лекарственным препаратом корневого канала</t>
-  </si>
-  <si>
-    <t>ТР-А16.07.030.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Машинная инструментальная обработка 1-го плохо проходимого корневого канала (электро эндо-мотор)</t>
-  </si>
-  <si>
-    <t>ТР-А16.07.030.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Обработка 1-го  корневого канала ультразвуковым инструментом</t>
-  </si>
-  <si>
-    <t>ТР-А16.07.030.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Медикаментозная обработка 1-го корневого канала</t>
-  </si>
-  <si>
-    <t>ТР-А16.07.082.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Распломбировка 1-го корневого канала ранее леченного пастой</t>
-  </si>
-  <si>
-    <t>ТР-А16.07.082.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Распломбировка 1-го корневого канала ранее леченного фосфат- цементом/ резорцин-формальдегидным методом</t>
-  </si>
-  <si>
-    <t>ТР-А17.07.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Депофорез корневого канала зуба</t>
-  </si>
-  <si>
-    <t>ТР-А22.07.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Ультразвуковое расширение 1-го корневого канала зуба</t>
-  </si>
-  <si>
-    <t>ТР-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Временные пломбы</t>
-  </si>
-  <si>
-    <t>ТР-A16.07.002.009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Наложение временной пломбы</t>
-  </si>
-  <si>
-    <t>ТР-A16.07.002.010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Наложение временной пломбы ( фотополимер)</t>
-  </si>
-  <si>
-    <t>ТР-A16.07.091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Снятие временной пломбы</t>
-  </si>
-  <si>
-    <t>ТР-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Шинирование зубов и каппы</t>
-  </si>
-  <si>
-    <t>ТР-A16.07.019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Временное шинирование при заболеваниях пародонта (1 единица)</t>
-  </si>
-  <si>
-    <t>ТР-А23.07.002.043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Изготовление боксерской каппы</t>
-  </si>
-  <si>
-    <t>ТР-А23.07.002.065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Изготовление элайнера</t>
-  </si>
-  <si>
-    <t>ТР-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Пародонтология терапевтическая</t>
-  </si>
-  <si>
-    <t>ТР-А02.07.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Исследование зубодесневых карманов с помощью пародонтологического зонда</t>
-  </si>
-  <si>
-    <t>ТР-А11.07.010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Введение лекарственных препаратов в пародонтальный карман</t>
-  </si>
-  <si>
-    <t>ТР-А15.07.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Наложение лечебной повязки при заболеваниях слизистой оболочки полости рта и пародонта в области одной челюсти</t>
-  </si>
-  <si>
-    <t>ТР-А16.07.020.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Удаление наддесневых и поддесневых зубных отложений в области зуба ручным методом (КЮРЕТАЖ)</t>
-  </si>
-  <si>
-    <t>ТР-А16.07.051.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Применение  Air-Flow</t>
-  </si>
-  <si>
-    <t>ТР-А16.07.051.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Отбеливание Opalescence Boost 1-го зуба</t>
-  </si>
-  <si>
-    <t>ТР-А16.07.051.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Отбеливание Opalescence Boost 6 зубов</t>
-  </si>
-  <si>
-    <t>ТР-А16.07.051.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Реминерализация зуба в клинических условиях</t>
-  </si>
-  <si>
-    <t>ТР-А16.07.051.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Удаление зубного налета и полировка зубов с помощью специализированного вращающегося инструмента</t>
-  </si>
-  <si>
-    <t>ТР-А20.07.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Гидроорошение при заболевании полости рта и зубов</t>
-  </si>
-  <si>
-    <t>ТР-А22.07.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Ультразвуковая обработка пародонтального кармана в области зуба</t>
-  </si>
-  <si>
-    <t>ТР-А22.07.002.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Ультразвуковое удаление наддесневых и поддесневых зубных отложений . (сегмент 4-6 зубов)</t>
-  </si>
-  <si>
-    <t>ТР-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Лечение пульпита,периодонтита</t>
-  </si>
-  <si>
-    <t>ТР-К04.01.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Лечение пульпита 1 канального зуба(вкл ручную,механическую и медикаментозную обработку,апекслокатор,временную пломбу и постоянную пломбировку канала)</t>
-  </si>
-  <si>
-    <t>ТР-К04.01.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Лечение пульпита 2х канального зуба(вкл ручную,механическую и медикаментозную обработку,апекслокатор,временную пломбу и постоянную пломбировку каналов)</t>
-  </si>
-  <si>
-    <t>ТР-К04.01.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Лечение пульпита 3х канального зуба(вкл ручную,механическую и медикаментозную обработку,апекслокатор,временную пломбу и постоянную пломбировку каналов)</t>
-  </si>
-  <si>
-    <t>ТР-К04.05.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Лечение периодонтита 1 канального зуба( вкл ручную,механическую,ультразвуковую и медикаментозную обработку,апекслокатор,временную пломбу,временную и постоянную пломбировку канала) за 2 приема</t>
-  </si>
-  <si>
-    <t>ТР-К04.05.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Лечение периодонтита 2х канального зуба( вкл ручную,механическую,ультразвуковую и медикаментозную обработку,апекслокатор,временную пломбу,временную и постоянную пломбировку каналов) за 2 приема</t>
-  </si>
-  <si>
-    <t>ТР-К04.05.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Лечение периодонтита 3х канального зуба( вкл ручную,механическую,ультразвуковую и медикаментозную обработку,апекслокатор,временную пломбу,временную и постоянную пломбировку каналов) за 2 приема</t>
-  </si>
-  <si>
-    <t>АНСТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Анестезия и  инъекции</t>
-  </si>
-  <si>
-    <t>АНСТ-B01.003.004.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Местная анестезия интралигаментарная</t>
-  </si>
-  <si>
-    <t>АНСТ-B01.003.004.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Проводниковая анестезия</t>
-  </si>
-  <si>
-    <t>АНСТ-B01.003.004.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Ирригационная анестезия</t>
-  </si>
-  <si>
-    <t>АНСТ-B01.003.004.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Аппликационная анестезия</t>
-  </si>
-  <si>
-    <t>АНСТ-B01.003.004.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Инфильтрационная анестезия</t>
-  </si>
-  <si>
-    <t>АНСТ-В01.003.004.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Антигистаминная подготовка</t>
-  </si>
-  <si>
-    <t>АНСТ-В01.003.004.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Внутримышечное введение обезболивающих и противовоспалительных препаратов</t>
-  </si>
-  <si>
-    <t>ПРФ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Профилактика</t>
-  </si>
-  <si>
-    <t>ПРФ-А11.07.012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Глубокое фторирование эмали зуба</t>
-  </si>
-  <si>
-    <t>ПРФ-А11.07.022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Аппликация лекарственного препарата на слизистую оболочку полости рта</t>
-  </si>
-  <si>
-    <t>ПРФ-А11.07.024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Местное применение реминерализующих препаратов в области зуба</t>
-  </si>
-  <si>
-    <t>ПРФ-А14.07.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Обучение гигиене полости рта и зубов индивидуальное, подбор средств и предметов гигиены полости рта</t>
-  </si>
-  <si>
-    <t>ПРФ-А16.07.051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Профессиональная гигиена полости рта и зубов</t>
-  </si>
-  <si>
-    <t>ПРФ-А16.07.052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Снятие твердых и мягких зубных отложений с помощью ультразвукового скейлера ( 1 сегмент ).</t>
-  </si>
-  <si>
-    <t>ПРФ-А16.07.057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Запечатывание фиссуры зуба герметиком</t>
-  </si>
-  <si>
-    <t>ПРФ-А22.07.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Ультразвуковое удаление наддесневых и поддесневых зубных отложений в области зубов одной челюсти</t>
-  </si>
-  <si>
-    <t>ПРФ-В04.070.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Школа психологической профилактики для пациентов и родственников (адаптивный прием)</t>
-  </si>
-  <si>
-    <t>ДТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Терапия детская</t>
-  </si>
-  <si>
-    <t>ДТ-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Профилактика</t>
-  </si>
-  <si>
-    <t>ДТ-А03.07.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Люминесцентная стоматоскопия</t>
-  </si>
-  <si>
-    <t>ДТ-А03.07.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Транс Люминесцентная стоматоскопия</t>
-  </si>
-  <si>
-    <t>ДТ-А11.07.012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Глубокое фторирование эмали зуба</t>
-  </si>
-  <si>
-    <t>ДТ-А11.07.022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Аппликация лекарственного препарата на слизистую оболочку полости рта</t>
-  </si>
-  <si>
-    <t>ДТ-А11.07.024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Местное применение реминерализующих препаратов в области зуба</t>
-  </si>
-  <si>
-    <t>ДТ-А12.07.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Витальное окрашивание твердых тканей зуба</t>
-  </si>
-  <si>
-    <t>ДТ-А14.07.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Обучение гигиене полости рта и зубов индивидуальное, подбор средств и предметов гигиены полости рта</t>
-  </si>
-  <si>
-    <t>ДТ-А16.07.051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Профессиональная гигиена полости рта и зубов</t>
-  </si>
-  <si>
-    <t>ДТ-А16.07.052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Профессиональная гигиена полости рта и зубов ( сменный прикус ) с УЗ. Включая все манипуляции и материалы</t>
-  </si>
-  <si>
-    <t>ДТ-А16.07.057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Запечатывание фиссуры зуба герметиком</t>
-  </si>
-  <si>
-    <t>ДТ-А25.07.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Назначение диетического питания при заболеваниях полости рта и зубов</t>
-  </si>
-  <si>
-    <t>ДТ-А25.07.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Назначение лечебно-оздоровительного режима при заболеваниях полости рта и зубов</t>
-  </si>
-  <si>
-    <t>ДТ-В04.070.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Школа психологической профилактики для пациентов и родственников (адаптивный прием)</t>
-  </si>
-  <si>
-    <t>ДТ-В04.070.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Выдача врачём стоматологом детским , справки о санации полости рта ( при условии полной санации) , включая инструментальный и визуальный осмотр</t>
-  </si>
-  <si>
-    <t>ДТ-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Восстановление временного зуба пломбой</t>
-  </si>
-  <si>
-    <t>ДТ-A16.07.082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Сошлифовывание твердых тканей зуба временного  при лечении кариеса и его осложнений</t>
-  </si>
-  <si>
-    <t>ДТ-А16.07.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Восстановление зуба временного пломбой</t>
-  </si>
-  <si>
-    <t>ДТ-А16.07.002.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Восстановление зуба с использованием стоматологических цементов (временный зуб)</t>
-  </si>
-  <si>
-    <t>ДТ-А16.07.002.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Восстановление зуба временного ,  пломбой с нарушением контактного пункта  с использованием стоматологических цементов</t>
-  </si>
-  <si>
-    <t>ДТ-А16.07.002.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Восстановление зуба временного , пломбой  с использованием стеклоиономерных цементов</t>
-  </si>
-  <si>
-    <t>ДТ-А16.07.002.009</t>
-  </si>
-  <si>
-    <t>ДТ-А16.07.002.010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Восстановление зуба временного ,пломбой  с использованием материалов из фотополимеров</t>
-  </si>
-  <si>
-    <t>ДТ-А16.07.002.011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Восстановление постоянного зуба с использованием материалов из фотополимеров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Восстановление зуба временного ,  пломбой с нарушением контактного пункта  с использованием материалов из фотополимеров</t>
-  </si>
-  <si>
-    <t>ДТ-А16.07.002.012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Эстетическая реставрация зуба , пациенту детского возраста</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Восстановление зуба временного  пломбой IV класс по Блэку с использованием материалов из фотополимеров</t>
-  </si>
-  <si>
-    <t>ДТ-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Лечение осложнений кариеса временных зубов (эндодонтическое лечение корневых каналов)</t>
-  </si>
-  <si>
-    <t>ДТ-A16.07.009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         ленчение пульпита  временного зуба (включая постоянную пломбу,все манипуляции и материалы ).</t>
-  </si>
-  <si>
-    <t>ДТ-A16.07.010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Экстирпация пульпы</t>
-  </si>
-  <si>
-    <t>ДТ-А11.07.027</t>
-  </si>
-  <si>
-    <t>ДТ-А16.07.008</t>
   </si>
   <si>
     <t>ДТ-А16.07.008.001</t>
@@ -2477,20 +2813,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C337"/>
+  <dimension ref="A1:C391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B285" workbookViewId="0">
-      <selection activeCell="B298" sqref="B298"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A392" sqref="A392:XFD411"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="192.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="192.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2501,7 +2837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2510,7 +2846,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2519,7 +2855,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2528,7 +2864,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2539,7 +2875,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2547,10 +2883,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2558,10 +2894,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -2572,7 +2908,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -2580,10 +2916,10 @@
         <v>18</v>
       </c>
       <c r="C9" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -2591,10 +2927,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2602,10 +2938,10 @@
         <v>22</v>
       </c>
       <c r="C11" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -2613,19 +2949,21 @@
         <v>24</v>
       </c>
       <c r="C12" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -2636,7 +2974,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -2644,21 +2982,19 @@
         <v>30</v>
       </c>
       <c r="C15" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -2666,10 +3002,10 @@
         <v>34</v>
       </c>
       <c r="C17" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -2677,10 +3013,10 @@
         <v>36</v>
       </c>
       <c r="C18" s="7">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -2688,10 +3024,10 @@
         <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -2699,10 +3035,10 @@
         <v>40</v>
       </c>
       <c r="C20" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -2710,10 +3046,10 @@
         <v>42</v>
       </c>
       <c r="C21" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -2721,10 +3057,10 @@
         <v>44</v>
       </c>
       <c r="C22" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -2732,10 +3068,10 @@
         <v>46</v>
       </c>
       <c r="C23" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
@@ -2743,10 +3079,10 @@
         <v>48</v>
       </c>
       <c r="C24" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
@@ -2754,10 +3090,10 @@
         <v>50</v>
       </c>
       <c r="C25" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -2765,10 +3101,10 @@
         <v>52</v>
       </c>
       <c r="C26" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -2776,10 +3112,10 @@
         <v>54</v>
       </c>
       <c r="C27" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
@@ -2787,10 +3123,10 @@
         <v>56</v>
       </c>
       <c r="C28" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -2798,10 +3134,10 @@
         <v>58</v>
       </c>
       <c r="C29" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -2809,19 +3145,21 @@
         <v>60</v>
       </c>
       <c r="C30" s="7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>63</v>
       </c>
@@ -2829,10 +3167,10 @@
         <v>64</v>
       </c>
       <c r="C32" s="7">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -2840,21 +3178,19 @@
         <v>66</v>
       </c>
       <c r="C33" s="7">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="7">
-        <v>36500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>69</v>
       </c>
@@ -2862,10 +3198,10 @@
         <v>70</v>
       </c>
       <c r="C35" s="7">
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>71</v>
       </c>
@@ -2873,10 +3209,10 @@
         <v>72</v>
       </c>
       <c r="C36" s="7">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -2884,10 +3220,10 @@
         <v>74</v>
       </c>
       <c r="C37" s="7">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>75</v>
       </c>
@@ -2895,10 +3231,10 @@
         <v>76</v>
       </c>
       <c r="C38" s="7">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>77</v>
       </c>
@@ -2906,10 +3242,10 @@
         <v>78</v>
       </c>
       <c r="C39" s="7">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
@@ -2917,10 +3253,10 @@
         <v>80</v>
       </c>
       <c r="C40" s="7">
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
@@ -2928,10 +3264,10 @@
         <v>82</v>
       </c>
       <c r="C41" s="7">
-        <v>46000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>83</v>
       </c>
@@ -2939,10 +3275,10 @@
         <v>84</v>
       </c>
       <c r="C42" s="7">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>85</v>
       </c>
@@ -2950,10 +3286,10 @@
         <v>86</v>
       </c>
       <c r="C43" s="7">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>87</v>
       </c>
@@ -2961,10 +3297,10 @@
         <v>88</v>
       </c>
       <c r="C44" s="7">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>89</v>
       </c>
@@ -2972,10 +3308,10 @@
         <v>90</v>
       </c>
       <c r="C45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>91</v>
       </c>
@@ -2983,10 +3319,10 @@
         <v>92</v>
       </c>
       <c r="C46" s="7">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>93</v>
       </c>
@@ -2994,10 +3330,10 @@
         <v>94</v>
       </c>
       <c r="C47" s="7">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
@@ -3005,10 +3341,10 @@
         <v>96</v>
       </c>
       <c r="C48" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>97</v>
       </c>
@@ -3016,10 +3352,10 @@
         <v>98</v>
       </c>
       <c r="C49" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>99</v>
       </c>
@@ -3027,10 +3363,10 @@
         <v>100</v>
       </c>
       <c r="C50" s="7">
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>101</v>
       </c>
@@ -3038,10 +3374,10 @@
         <v>102</v>
       </c>
       <c r="C51" s="7">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>103</v>
       </c>
@@ -3049,10 +3385,10 @@
         <v>104</v>
       </c>
       <c r="C52" s="7">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>105</v>
       </c>
@@ -3060,10 +3396,10 @@
         <v>106</v>
       </c>
       <c r="C53" s="7">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>107</v>
       </c>
@@ -3071,19 +3407,21 @@
         <v>108</v>
       </c>
       <c r="C54" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="7">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>111</v>
       </c>
@@ -3091,1173 +3429,1171 @@
         <v>112</v>
       </c>
       <c r="C56" s="7">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C57" s="7">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="7">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="7">
         <v>9000</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="7">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" s="7">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="7">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C61" s="7">
         <v>70000</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="4"/>
-    </row>
-    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="7">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C63" s="7">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="7">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="7">
         <v>700</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C64" s="7">
+    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="7">
         <v>1300</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" s="7">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C68" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C69" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="7">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C70" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C71" s="7">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C72" s="7">
         <v>3000</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C73" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="7">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="7">
         <v>700</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C74" s="4"/>
-    </row>
-    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C75" s="7">
+    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="7">
         <v>25000</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C76" s="7">
+    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="7">
         <v>26000</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C77" s="7">
+    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" s="7">
         <v>28000</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" s="7">
+    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="7">
         <v>30000</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C79" s="4"/>
-    </row>
-    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C80" s="7">
+    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" s="7">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="4"/>
+    </row>
+    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" s="7">
         <v>6000</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C81" s="7">
+    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" s="7">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C82" s="7">
+    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86" s="7">
         <v>2000</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C83" s="7">
+    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C84" s="7">
+    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C88" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C85" s="7">
+    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="7">
         <v>11000</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C86" s="7">
+    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="7">
         <v>12000</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C87" s="7">
+    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" s="7">
         <v>14000</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C88" s="7">
+    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="7">
         <v>15000</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C89" s="7">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C90" s="7">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C91" s="7">
+    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C93" s="7">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94" s="7">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" s="7">
         <v>19500</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C92" s="7">
+    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" s="7">
         <v>22000</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C93" s="7">
+    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" s="7">
         <v>23500</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C94" s="7">
+    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" s="7">
         <v>22000</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C95" s="7">
+    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99" s="7">
         <v>23500</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C96" s="7">
+    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="7">
         <v>25500</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C97" s="7">
+    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" s="7">
         <v>26000</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="7">
+    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="7">
         <v>30000</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C99" s="7">
+    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C103" s="7">
         <v>12500</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C100" s="7">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C101" s="7">
+    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" s="7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C105" s="7">
         <v>16000</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C102" s="7">
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C103" s="7">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C104" s="7">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C105" s="7">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C106" s="7">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C107" s="7">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C108" s="7">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C109" s="7">
         <v>43000</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C110" s="7">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C111" s="7">
         <v>45000</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C112" s="7">
-        <v>47000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B113" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C113" s="4"/>
-    </row>
-    <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C113" s="7">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C114" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C115" s="7">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C116" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C117" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C118" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C119" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C120" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C121" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C122" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C123" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C124" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B125" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C125" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C125" s="4"/>
+    </row>
+    <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C126" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C127" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B128" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C128" s="4"/>
-    </row>
-    <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C128" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B129" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C129" s="4"/>
-    </row>
-    <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C129" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C130" s="7">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C131" s="7">
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C132" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C133" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C133" s="7">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C134" s="7">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B135" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C135" s="4"/>
-    </row>
-    <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C135" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C136" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C137" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C138" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C139" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C139" s="7">
+    <row r="140" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C140" s="4"/>
+    </row>
+    <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C141" s="4"/>
+    </row>
+    <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C142" s="7">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C143" s="7">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C144" s="7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C145" s="7">
         <v>7000</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C140" s="7">
+    <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C146" s="7">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C147" s="7">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C148" s="7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C149" s="7">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C150" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C151" s="4"/>
+    </row>
+    <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C152" s="7">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C153" s="7">
         <v>15000</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C141" s="7">
+    <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C154" s="7">
         <v>20000</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C142" s="7">
+    <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C155" s="7">
         <v>16000</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C143" s="7">
+    <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C156" s="7">
         <v>32000</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C144" s="7">
+    <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C157" s="7">
         <v>30000</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C145" s="7">
+    <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C158" s="7">
         <v>45000</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C146" s="7">
+    <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C159" s="7">
         <v>25000</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C147" s="7">
+    <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C160" s="7">
         <v>23000</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C148" s="7">
+    <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C161" s="7">
         <v>45000</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C149" s="7">
+    <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C162" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C150" s="7">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C151" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C152" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C153" s="7">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C154" s="7">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C155" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C156" s="7">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C157" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C158" s="7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C159" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C160" s="7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C161" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B162" s="2" t="s">
+    <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="C162" s="7">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>323</v>
       </c>
       <c r="C163" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>324</v>
       </c>
@@ -4265,10 +4601,10 @@
         <v>325</v>
       </c>
       <c r="C164" s="7">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>326</v>
       </c>
@@ -4276,10 +4612,10 @@
         <v>327</v>
       </c>
       <c r="C165" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>328</v>
       </c>
@@ -4287,10 +4623,10 @@
         <v>329</v>
       </c>
       <c r="C166" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>330</v>
       </c>
@@ -4298,10 +4634,10 @@
         <v>331</v>
       </c>
       <c r="C167" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>332</v>
       </c>
@@ -4309,10 +4645,10 @@
         <v>333</v>
       </c>
       <c r="C168" s="7">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>334</v>
       </c>
@@ -4320,10 +4656,10 @@
         <v>335</v>
       </c>
       <c r="C169" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>336</v>
       </c>
@@ -4331,10 +4667,10 @@
         <v>337</v>
       </c>
       <c r="C170" s="7">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>338</v>
       </c>
@@ -4342,10 +4678,10 @@
         <v>339</v>
       </c>
       <c r="C171" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>340</v>
       </c>
@@ -4353,10 +4689,10 @@
         <v>341</v>
       </c>
       <c r="C172" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>342</v>
       </c>
@@ -4364,10 +4700,10 @@
         <v>343</v>
       </c>
       <c r="C173" s="7">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>344</v>
       </c>
@@ -4375,10 +4711,10 @@
         <v>345</v>
       </c>
       <c r="C174" s="7">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>346</v>
       </c>
@@ -4386,10 +4722,10 @@
         <v>347</v>
       </c>
       <c r="C175" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>348</v>
       </c>
@@ -4397,10 +4733,10 @@
         <v>349</v>
       </c>
       <c r="C176" s="7">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>350</v>
       </c>
@@ -4408,10 +4744,10 @@
         <v>351</v>
       </c>
       <c r="C177" s="7">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>352</v>
       </c>
@@ -4419,10 +4755,10 @@
         <v>353</v>
       </c>
       <c r="C178" s="7">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>354</v>
       </c>
@@ -4430,10 +4766,10 @@
         <v>355</v>
       </c>
       <c r="C179" s="7">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>356</v>
       </c>
@@ -4444,7 +4780,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>358</v>
       </c>
@@ -4452,10 +4788,10 @@
         <v>359</v>
       </c>
       <c r="C181" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>360</v>
       </c>
@@ -4463,10 +4799,10 @@
         <v>361</v>
       </c>
       <c r="C182" s="7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>362</v>
       </c>
@@ -4474,10 +4810,10 @@
         <v>363</v>
       </c>
       <c r="C183" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>364</v>
       </c>
@@ -4485,10 +4821,10 @@
         <v>365</v>
       </c>
       <c r="C184" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>366</v>
       </c>
@@ -4496,10 +4832,10 @@
         <v>367</v>
       </c>
       <c r="C185" s="7">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>368</v>
       </c>
@@ -4507,10 +4843,10 @@
         <v>369</v>
       </c>
       <c r="C186" s="7">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>370</v>
       </c>
@@ -4518,10 +4854,10 @@
         <v>371</v>
       </c>
       <c r="C187" s="7">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>372</v>
       </c>
@@ -4529,19 +4865,21 @@
         <v>373</v>
       </c>
       <c r="C188" s="7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C189" s="4"/>
-    </row>
-    <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C189" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>376</v>
       </c>
@@ -4549,10 +4887,10 @@
         <v>377</v>
       </c>
       <c r="C190" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>378</v>
       </c>
@@ -4560,10 +4898,10 @@
         <v>379</v>
       </c>
       <c r="C191" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>380</v>
       </c>
@@ -4571,10 +4909,10 @@
         <v>381</v>
       </c>
       <c r="C192" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>382</v>
       </c>
@@ -4582,10 +4920,10 @@
         <v>383</v>
       </c>
       <c r="C193" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>384</v>
       </c>
@@ -4593,10 +4931,10 @@
         <v>385</v>
       </c>
       <c r="C194" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>386</v>
       </c>
@@ -4604,10 +4942,10 @@
         <v>387</v>
       </c>
       <c r="C195" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>388</v>
       </c>
@@ -4615,10 +4953,10 @@
         <v>389</v>
       </c>
       <c r="C196" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>390</v>
       </c>
@@ -4629,7 +4967,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>392</v>
       </c>
@@ -4637,10 +4975,10 @@
         <v>393</v>
       </c>
       <c r="C198" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>394</v>
       </c>
@@ -4648,10 +4986,10 @@
         <v>395</v>
       </c>
       <c r="C199" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>396</v>
       </c>
@@ -4659,10 +4997,10 @@
         <v>397</v>
       </c>
       <c r="C200" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>398</v>
       </c>
@@ -4673,7 +5011,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>400</v>
       </c>
@@ -4681,10 +5019,10 @@
         <v>401</v>
       </c>
       <c r="C202" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>402</v>
       </c>
@@ -4692,28 +5030,30 @@
         <v>403</v>
       </c>
       <c r="C203" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="B204" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C204" s="4"/>
-    </row>
-    <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C204" s="7">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B205" s="5" t="s">
         <v>407</v>
       </c>
       <c r="C205" s="4"/>
     </row>
-    <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>408</v>
       </c>
@@ -4721,10 +5061,10 @@
         <v>409</v>
       </c>
       <c r="C206" s="7">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>410</v>
       </c>
@@ -4732,10 +5072,10 @@
         <v>411</v>
       </c>
       <c r="C207" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>412</v>
       </c>
@@ -4743,206 +5083,204 @@
         <v>413</v>
       </c>
       <c r="C208" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C209" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C210" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C211" s="7">
         <v>400</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C211" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C212" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C213" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C214" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C215" s="7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C216" s="7">
         <v>1500</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C217" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C218" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C219" s="7">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C220" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C220" s="4"/>
+    </row>
+    <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C221" s="7">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C221" s="4"/>
+    </row>
+    <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C222" s="7">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C223" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C224" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>444</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C225" s="7">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B226" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C226" s="4"/>
-    </row>
-    <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C226" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>448</v>
       </c>
@@ -4950,10 +5288,10 @@
         <v>449</v>
       </c>
       <c r="C227" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>450</v>
       </c>
@@ -4961,10 +5299,10 @@
         <v>451</v>
       </c>
       <c r="C228" s="7">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>452</v>
       </c>
@@ -4972,10 +5310,10 @@
         <v>453</v>
       </c>
       <c r="C229" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>454</v>
       </c>
@@ -4983,10 +5321,10 @@
         <v>455</v>
       </c>
       <c r="C230" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>456</v>
       </c>
@@ -4994,10 +5332,10 @@
         <v>457</v>
       </c>
       <c r="C231" s="7">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>458</v>
       </c>
@@ -5005,10 +5343,10 @@
         <v>459</v>
       </c>
       <c r="C232" s="7">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>460</v>
       </c>
@@ -5016,10 +5354,10 @@
         <v>461</v>
       </c>
       <c r="C233" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>462</v>
       </c>
@@ -5027,10 +5365,10 @@
         <v>463</v>
       </c>
       <c r="C234" s="7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>464</v>
       </c>
@@ -5038,10 +5376,10 @@
         <v>465</v>
       </c>
       <c r="C235" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>466</v>
       </c>
@@ -5049,10 +5387,10 @@
         <v>467</v>
       </c>
       <c r="C236" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>468</v>
       </c>
@@ -5060,10 +5398,10 @@
         <v>469</v>
       </c>
       <c r="C237" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>470</v>
       </c>
@@ -5071,10 +5409,10 @@
         <v>471</v>
       </c>
       <c r="C238" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>472</v>
       </c>
@@ -5082,10 +5420,10 @@
         <v>473</v>
       </c>
       <c r="C239" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>474</v>
       </c>
@@ -5093,171 +5431,173 @@
         <v>475</v>
       </c>
       <c r="C240" s="7">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="C241" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C241" s="4"/>
+    </row>
+    <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C242" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C243" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C244" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C245" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C246" s="7">
         <v>1500</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C247" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C248" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C249" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B250" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="C250" s="4"/>
-    </row>
-    <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B250" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C250" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C251" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C252" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="2" t="s">
-        <v>499</v>
-      </c>
       <c r="B253" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C253" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B254" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C254" s="4"/>
-    </row>
-    <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B254" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C254" s="7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>504</v>
       </c>
       <c r="C255" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>505</v>
       </c>
@@ -5265,10 +5605,10 @@
         <v>506</v>
       </c>
       <c r="C256" s="7">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>507</v>
       </c>
@@ -5276,19 +5616,21 @@
         <v>508</v>
       </c>
       <c r="C257" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B258" s="6" t="s">
+      <c r="B258" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C258" s="4"/>
-    </row>
-    <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C258" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>511</v>
       </c>
@@ -5296,10 +5638,10 @@
         <v>512</v>
       </c>
       <c r="C259" s="7">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>513</v>
       </c>
@@ -5307,10 +5649,10 @@
         <v>514</v>
       </c>
       <c r="C260" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>515</v>
       </c>
@@ -5318,10 +5660,10 @@
         <v>516</v>
       </c>
       <c r="C261" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>517</v>
       </c>
@@ -5329,10 +5671,10 @@
         <v>518</v>
       </c>
       <c r="C262" s="7">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>519</v>
       </c>
@@ -5340,21 +5682,19 @@
         <v>520</v>
       </c>
       <c r="C263" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C264" s="7">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C264" s="4"/>
+    </row>
+    <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>523</v>
       </c>
@@ -5362,10 +5702,10 @@
         <v>524</v>
       </c>
       <c r="C265" s="7">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>525</v>
       </c>
@@ -5373,10 +5713,10 @@
         <v>526</v>
       </c>
       <c r="C266" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>527</v>
       </c>
@@ -5384,21 +5724,19 @@
         <v>528</v>
       </c>
       <c r="C267" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B268" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="C268" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C268" s="4"/>
+    </row>
+    <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>531</v>
       </c>
@@ -5406,10 +5744,10 @@
         <v>532</v>
       </c>
       <c r="C269" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>533</v>
       </c>
@@ -5417,30 +5755,30 @@
         <v>534</v>
       </c>
       <c r="C270" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B271" s="6" t="s">
+      <c r="B271" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C271" s="4"/>
-    </row>
-    <row r="272" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C271" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="C272" s="7">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C272" s="4"/>
+    </row>
+    <row r="273" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>539</v>
       </c>
@@ -5448,10 +5786,10 @@
         <v>540</v>
       </c>
       <c r="C273" s="7">
-        <v>13300</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>541</v>
       </c>
@@ -5459,10 +5797,10 @@
         <v>542</v>
       </c>
       <c r="C274" s="7">
-        <v>18600</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>543</v>
       </c>
@@ -5470,10 +5808,10 @@
         <v>544</v>
       </c>
       <c r="C275" s="7">
-        <v>10100</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>545</v>
       </c>
@@ -5481,10 +5819,10 @@
         <v>546</v>
       </c>
       <c r="C276" s="7">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>547</v>
       </c>
@@ -5492,19 +5830,21 @@
         <v>548</v>
       </c>
       <c r="C277" s="7">
-        <v>23900</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B278" s="5" t="s">
+      <c r="B278" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C278" s="4"/>
-    </row>
-    <row r="279" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C278" s="7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>551</v>
       </c>
@@ -5512,10 +5852,10 @@
         <v>552</v>
       </c>
       <c r="C279" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>553</v>
       </c>
@@ -5523,10 +5863,10 @@
         <v>554</v>
       </c>
       <c r="C280" s="7">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>555</v>
       </c>
@@ -5534,10 +5874,10 @@
         <v>556</v>
       </c>
       <c r="C281" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>557</v>
       </c>
@@ -5545,10 +5885,10 @@
         <v>558</v>
       </c>
       <c r="C282" s="7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>559</v>
       </c>
@@ -5556,10 +5896,10 @@
         <v>560</v>
       </c>
       <c r="C283" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>561</v>
       </c>
@@ -5567,10 +5907,10 @@
         <v>562</v>
       </c>
       <c r="C284" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>563</v>
       </c>
@@ -5578,30 +5918,30 @@
         <v>564</v>
       </c>
       <c r="C285" s="7">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B286" s="5" t="s">
+      <c r="B286" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="C286" s="4"/>
-    </row>
-    <row r="287" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C286" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="C287" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C287" s="4"/>
+    </row>
+    <row r="288" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>569</v>
       </c>
@@ -5609,10 +5949,10 @@
         <v>570</v>
       </c>
       <c r="C288" s="7">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>571</v>
       </c>
@@ -5620,10 +5960,10 @@
         <v>572</v>
       </c>
       <c r="C289" s="7">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>573</v>
       </c>
@@ -5631,10 +5971,10 @@
         <v>574</v>
       </c>
       <c r="C290" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>575</v>
       </c>
@@ -5642,10 +5982,10 @@
         <v>576</v>
       </c>
       <c r="C291" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20600</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>577</v>
       </c>
@@ -5653,10 +5993,10 @@
         <v>578</v>
       </c>
       <c r="C292" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>579</v>
       </c>
@@ -5664,10 +6004,10 @@
         <v>580</v>
       </c>
       <c r="C293" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>581</v>
       </c>
@@ -5675,10 +6015,10 @@
         <v>582</v>
       </c>
       <c r="C294" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23900</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>583</v>
       </c>
@@ -5686,10 +6026,10 @@
         <v>584</v>
       </c>
       <c r="C295" s="7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>585</v>
       </c>
@@ -5698,16 +6038,18 @@
       </c>
       <c r="C296" s="4"/>
     </row>
-    <row r="297" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B297" s="6" t="s">
+      <c r="B297" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C297" s="4"/>
-    </row>
-    <row r="298" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C297" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>589</v>
       </c>
@@ -5715,10 +6057,10 @@
         <v>590</v>
       </c>
       <c r="C298" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>591</v>
       </c>
@@ -5726,10 +6068,10 @@
         <v>592</v>
       </c>
       <c r="C299" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>593</v>
       </c>
@@ -5740,7 +6082,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>595</v>
       </c>
@@ -5748,10 +6090,10 @@
         <v>596</v>
       </c>
       <c r="C301" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>597</v>
       </c>
@@ -5759,10 +6101,10 @@
         <v>598</v>
       </c>
       <c r="C302" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>599</v>
       </c>
@@ -5773,7 +6115,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>601</v>
       </c>
@@ -5784,18 +6126,16 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="B305" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="C305" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C305" s="4"/>
+    </row>
+    <row r="306" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>605</v>
       </c>
@@ -5803,10 +6143,10 @@
         <v>606</v>
       </c>
       <c r="C306" s="7">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>607</v>
       </c>
@@ -5814,10 +6154,10 @@
         <v>608</v>
       </c>
       <c r="C307" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>609</v>
       </c>
@@ -5825,10 +6165,10 @@
         <v>610</v>
       </c>
       <c r="C308" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>611</v>
       </c>
@@ -5836,10 +6176,10 @@
         <v>612</v>
       </c>
       <c r="C309" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>613</v>
       </c>
@@ -5847,10 +6187,10 @@
         <v>614</v>
       </c>
       <c r="C310" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>615</v>
       </c>
@@ -5858,19 +6198,21 @@
         <v>616</v>
       </c>
       <c r="C311" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B312" s="6" t="s">
+      <c r="B312" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="C312" s="4"/>
-    </row>
-    <row r="313" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C312" s="7">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>619</v>
       </c>
@@ -5878,10 +6220,10 @@
         <v>620</v>
       </c>
       <c r="C313" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>621</v>
       </c>
@@ -5889,10 +6231,10 @@
         <v>622</v>
       </c>
       <c r="C314" s="7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>623</v>
       </c>
@@ -5900,10 +6242,10 @@
         <v>624</v>
       </c>
       <c r="C315" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>625</v>
       </c>
@@ -5911,10 +6253,10 @@
         <v>626</v>
       </c>
       <c r="C316" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>627</v>
       </c>
@@ -5922,229 +6264,815 @@
         <v>628</v>
       </c>
       <c r="C317" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>218800</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>629</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>496</v>
+        <v>630</v>
       </c>
       <c r="C318" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>238800</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C319" s="7">
+        <v>248800</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C320" s="7">
+        <v>265800</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C321" s="7">
         <v>3000</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="C320" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="C321" s="7">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C322" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C323" s="7">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="B324" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="C324" s="4"/>
-    </row>
-    <row r="325" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>641</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C324" s="7">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C325" s="7">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>239800</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C326" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>259800</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>455</v>
+        <v>648</v>
       </c>
       <c r="C327" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>457</v>
+        <v>650</v>
       </c>
       <c r="C328" s="7">
         <v>1200</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="C329" s="7">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="C330" s="7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C331" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C332" s="7">
         <v>5000</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="C331" s="7">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="C332" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C333" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>478</v>
+        <v>662</v>
       </c>
       <c r="C334" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="C335" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="C336" s="7">
         <v>2000</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="C337" s="7">
+        <v>667</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C337" s="4"/>
+    </row>
+    <row r="338" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C338" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C339" s="7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C340" s="7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C341" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C342" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C343" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C344" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C345" s="7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C346" s="7">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C347" s="7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C348" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="C349" s="4"/>
+    </row>
+    <row r="350" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="C350" s="4"/>
+    </row>
+    <row r="351" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C351" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C352" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C353" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C354" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C355" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C356" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C357" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C358" s="7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C359" s="7">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C360" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C361" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C362" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C363" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C364" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C365" s="4"/>
+    </row>
+    <row r="366" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C366" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C367" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C368" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C369" s="7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C370" s="7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C371" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C372" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C373" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C374" s="7">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C375" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C376" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C377" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B378" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="C378" s="4"/>
+    </row>
+    <row r="379" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C379" s="7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C380" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C381" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C382" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C383" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C384" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C385" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C386" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C387" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C388" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C389" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C390" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C391" s="7">
         <v>1500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/assets/files/pricelist.xlsx
+++ b/src/assets/files/pricelist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilik\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Отчеты IDENT\2024 Июль\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4647B518-4CE5-43C9-AD76-E8EF7BEC0F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE8AC5D-44D9-41E2-9E34-B57127192955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Прейскурант" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="872">
   <si>
     <t>Код</t>
   </si>
@@ -247,6 +247,12 @@
     <t xml:space="preserve">         Протезирование зубов полным съемным пластиночным протезом Acry Free</t>
   </si>
   <si>
+    <t>ОРТ-A16.07.023.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Изготовление хирургического шаблона для имплантации</t>
+  </si>
+  <si>
     <t>ОРТ-A16.07.035.001</t>
   </si>
   <si>
@@ -385,9 +391,6 @@
     <t xml:space="preserve">         Стоимость 1-го локатора Osstem для съемного протеза</t>
   </si>
   <si>
-    <t>ОРТ-A16.07.023.004</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Протезирование зубов полным съемным пластиночным протезом  с опорой на имплантаты на 2х- 4 х локаторах Novaloc</t>
   </si>
   <si>
@@ -580,7 +583,7 @@
     <t>ОРТ-A16.07.004.011</t>
   </si>
   <si>
-    <t xml:space="preserve">         зуб литой штифтовой</t>
+    <t xml:space="preserve">         вкладка штифтово культевая КХС. 1 кат с культей покрытой опаком</t>
   </si>
   <si>
     <t>ОРТ-A16.07.004.012</t>
@@ -589,6 +592,12 @@
     <t xml:space="preserve">         коронка полно анатомическая ZrO2 SuperfectZir CAD CAM</t>
   </si>
   <si>
+    <t>ОРТ-A16.07.004.050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         вкладка штифтово культевая КХС. 2  кат с культей покрытой опаком</t>
+  </si>
+  <si>
     <t>ОРТ-А16.07.004.013</t>
   </si>
   <si>
@@ -724,7 +733,7 @@
     <t>ОРТ-А16.07.004.037</t>
   </si>
   <si>
-    <t xml:space="preserve">         коронка анатомическая ZrO2 Multilayer CAD CAM облицованная керамикой Эстетик +</t>
+    <t xml:space="preserve">         коронка анатомическая ZrO2 Multilayer CAD CAM облицованная керамикой Эстетик + (включая все манипуляции и материалы)</t>
   </si>
   <si>
     <t>ОРТ-А16.07.004.038</t>
@@ -763,6 +772,12 @@
     <t xml:space="preserve">         коронка  анатомическая ZrO2 Multilayer CAD CAM с винтовой фиксацией и керамической облицовкой ,для имплантата ( включая винт и платформу) платформа Osstem</t>
   </si>
   <si>
+    <t>ОРТ-А16.07.004.051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         коронка полно анатомическая ZrO2 Multilayer CAD CAM эстетик + (включая все манипуляции и материалы)</t>
+  </si>
+  <si>
     <t>КНС</t>
   </si>
   <si>
@@ -853,6 +868,18 @@
     <t xml:space="preserve">      Прием (осмотр, консультация) врача-стоматолога-хирурга повторный</t>
   </si>
   <si>
+    <t>КНС-B01.067.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Прием (осмотр, консультация) врача-стоматолога-хирурга пародонтолога первичный</t>
+  </si>
+  <si>
+    <t>КНС-B01.067.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Прием (осмотр, консультация) врача-стоматолога-хирурга пародонтолога повторный</t>
+  </si>
+  <si>
     <t>ХР</t>
   </si>
   <si>
@@ -925,6 +952,24 @@
     <t xml:space="preserve">      Пародонтология хирургическая</t>
   </si>
   <si>
+    <t>ХР-А11.07.010.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Лоскутная операция в области однокорневого зуба</t>
+  </si>
+  <si>
+    <t>ХР-А11.07.010.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Лоскутная операция в области многокорневого зуба</t>
+  </si>
+  <si>
+    <t>ХР-А11.07.010.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Пластика рецессии десны</t>
+  </si>
+  <si>
     <t>ХР-А11.07.010.004</t>
   </si>
   <si>
@@ -1048,6 +1093,12 @@
     <t xml:space="preserve">      Удаление корня зуба</t>
   </si>
   <si>
+    <t>ХР-А16.07.001.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Удаление подвижного зуба ( 2 степ подвижности )</t>
+  </si>
+  <si>
     <t>ХР-А16.07.007</t>
   </si>
   <si>
@@ -1381,7 +1432,7 @@
     <t>ТР-А16.07.002.009</t>
   </si>
   <si>
-    <t xml:space="preserve">         Восстановление культевой части зуба композитом светового отверждения в целях дальнейшего протезирования</t>
+    <t xml:space="preserve">         Восстановление культевой части зуба композитом светового отверждения в целях дальнейшего протезирования 1 кат</t>
   </si>
   <si>
     <t>ТР-А16.07.002.010</t>
@@ -1450,6 +1501,12 @@
     <t xml:space="preserve">         Эстетико-функциональное восстановление зуба фронтальной группы</t>
   </si>
   <si>
+    <t>ТР-А16.07.002.024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Восстановление культевой части зуба композитом светового отверждения в целях дальнейшего протезирования 2 кат</t>
+  </si>
+  <si>
     <t>ТР-02</t>
   </si>
   <si>
@@ -1669,18 +1726,6 @@
     <t xml:space="preserve">         Применение  Air-Flow</t>
   </si>
   <si>
-    <t>ТР-А16.07.051.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Профессиональное отбеливание зубов ( ZOOM 4)</t>
-  </si>
-  <si>
-    <t>ТР-А16.07.051.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Отбеливание зубов в домашних условиях ( ZOOM ,комплект материалов +обучение)</t>
-  </si>
-  <si>
     <t>ТР-А16.07.051.004</t>
   </si>
   <si>
@@ -1777,6 +1822,90 @@
     <t xml:space="preserve">         Лечение периодонтита 4х канального зуба( вкл ручную,механическую,ультразвуковую и медикаментозную обработку,апекслокатор,временную пломбу,временную и постоянную пломбировку каналов) за 2 приема</t>
   </si>
   <si>
+    <t>ДГН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Исследования и диагностика</t>
+  </si>
+  <si>
+    <t>ДГН-A02.07.004.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Антропометрические исследования с компьютерным моделированием и эстетическое планирование будущей улыбки по реальным фотографиям в программе Digital Smile Design</t>
+  </si>
+  <si>
+    <t>ДГН-A02.07.004.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Антропометрические исследования (медицинское фотографирование)</t>
+  </si>
+  <si>
+    <t>ДГН-A05.07.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Электроодонтометрия зуба (ЭОД)</t>
+  </si>
+  <si>
+    <t>ДГН-А02.07.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Исследование зубодесневых карманов с помощью пародонтологического зонда</t>
+  </si>
+  <si>
+    <t>ДГН-А02.07.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Термодиагностика зуба</t>
+  </si>
+  <si>
+    <t>ДГН-А02.07.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Определение степени патологической подвижности зубов</t>
+  </si>
+  <si>
+    <t>ДГН-А02.07.010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Исследование на диагностических моделях челюстей</t>
+  </si>
+  <si>
+    <t>ДГН-А02.07.011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Аксиография височно-нижнечелюстного сустава</t>
+  </si>
+  <si>
+    <t>ДГН-А02.07.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Функциография при патологии зубочелюстной системы</t>
+  </si>
+  <si>
+    <t>ДГН-А02.07.013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Функциональные жевательные пробы</t>
+  </si>
+  <si>
+    <t>ДГН-А02.07.014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Гнатодинамометрия</t>
+  </si>
+  <si>
+    <t>ДГН-А02.30.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Цефалометрия</t>
+  </si>
+  <si>
+    <t>ДГН-А12.07.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Витальное окрашивание твердых тканей зуба</t>
+  </si>
+  <si>
     <t>АНСТ</t>
   </si>
   <si>
@@ -1849,6 +1978,12 @@
     <t xml:space="preserve">      Ортодонтическая коррекция Активация системы (смена дуги)</t>
   </si>
   <si>
+    <t>ОРД-A16.07.046.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Аппарат для удержания места ( кольцо-петля )</t>
+  </si>
+  <si>
     <t>ОРД-A16.07.046.001</t>
   </si>
   <si>
@@ -1858,7 +1993,7 @@
     <t>ОРД-A16.07.046.002</t>
   </si>
   <si>
-    <t xml:space="preserve">      Ортодонтическая коррекция съемным аппаратом LM трейнер</t>
+    <t xml:space="preserve">      Ортодонтическая коррекция съемным аппаратом эластопозиционер .</t>
   </si>
   <si>
     <t>ОРД-A16.07.046.003</t>
@@ -1918,13 +2053,13 @@
     <t>ОРД-A16.07.048.005</t>
   </si>
   <si>
-    <t xml:space="preserve">      Ортодонтическая коррекция с применением брекет-системы керамической Damon за весь курс лечения 1 кат сложности</t>
+    <t xml:space="preserve">      Ортодонтическая коррекция с применением брекет-системы керамической Damon Clear / Experience ceramic за весь курс лечения 1 кат сложности</t>
   </si>
   <si>
     <t>ОРД-A16.07.048.006</t>
   </si>
   <si>
-    <t xml:space="preserve">      Ортодонтическая коррекция с применением брекет-системы керамической Damon за весь курс лечения 2 кат сложности</t>
+    <t xml:space="preserve">      Ортодонтическая коррекция с применением брекет-системы керамической Damon Clear / Experience ceramic за весь курс лечения 2 кат сложности</t>
   </si>
   <si>
     <t>ОРД-А.16.07.048.011</t>
@@ -1939,6 +2074,12 @@
     <t xml:space="preserve">      Лечение на элайнерах  Еврокаппа ( полная коорекция прикуса )</t>
   </si>
   <si>
+    <t>ОРД-А16.07.046.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ортодонтическая коррекция</t>
+  </si>
+  <si>
     <t>ОРД-А16.07.047.005</t>
   </si>
   <si>
@@ -1951,18 +2092,6 @@
     <t xml:space="preserve">      Коррекция ортодонтического аппарата ( пластинки ) изготовленной в другом ЛПУ</t>
   </si>
   <si>
-    <t>ОРД-А16.07.048.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Комбинированные самолигирующие Damon Clear ( на верх  ) Damon Q ,H4 (на нижнюю челюсть ) 1 категория сложности</t>
-  </si>
-  <si>
-    <t>ОРД-А16.07.048.009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Комбинированные самолигирующие Damon Clear( на верх ) Damon Q ,H4 (на нижнюю челюсть ) 2 категория сложности</t>
-  </si>
-  <si>
     <t>ОРД-А16.07.048.010</t>
   </si>
   <si>
@@ -2095,6 +2224,42 @@
     <t xml:space="preserve">      Школа психологической профилактики для пациентов и родственников (адаптивный прием)</t>
   </si>
   <si>
+    <t>A16.07.050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Профессиональное отбеливание зубов</t>
+  </si>
+  <si>
+    <t>A16.07.050-A16.07.050.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Профессиональное отбеливание зубов клиническое  за один визит (2 челюсти в линии улыбки) аппаратом ZOOM-4</t>
+  </si>
+  <si>
+    <t>A16.07.050-A16.07.050.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Профессиональное отбеливание зубов домашнее 2 челюсти (включает стоимость изготовления капп и стандартный набор отбеливающего геля)</t>
+  </si>
+  <si>
+    <t>A16.07.050-A16.07.050.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Профессиональное отбеливание зубов дополнительный шприц отбеливающего материала из набора домашнего отбеливания</t>
+  </si>
+  <si>
+    <t>A16.07.050-A16.07.050.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Профессиональное отбеливание зубов внутрикоронковое для невитальных измененных в цвете зубов (1 зуб)</t>
+  </si>
+  <si>
+    <t>A16.07.050-A16.07.050.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Профессиональное отбеливание зубов направленное клиническое (1 зуб)</t>
+  </si>
+  <si>
     <t>ДТ</t>
   </si>
   <si>
@@ -2152,19 +2317,25 @@
     <t>ДТ-А16.07.051</t>
   </si>
   <si>
-    <t xml:space="preserve">         Профессиональная гигиена полости рта и зубов ( сменный прикус ) без УЗ. Включая все манипуляции и материалы</t>
+    <t xml:space="preserve">         Профессиональная гигиена полости рта и зубов ( молочный прикус ) Включая все манипуляции и материалы</t>
   </si>
   <si>
     <t>ДТ-А16.07.052</t>
   </si>
   <si>
-    <t xml:space="preserve">         Профессиональная гигиена полости рта и зубов ( сменный прикус ) с УЗ. Включая все манипуляции и материалы</t>
+    <t xml:space="preserve">         Профессиональная гигиена полости рта и зубов ( сменный прикус ) Включая все манипуляции и материалы</t>
   </si>
   <si>
     <t>ДТ-А16.07.057</t>
   </si>
   <si>
-    <t xml:space="preserve">         Запечатывание фиссуры зуба герметиком</t>
+    <t xml:space="preserve">         Запечатывание фиссуры зуба герметиком ( временный зуб)</t>
+  </si>
+  <si>
+    <t>ДТ-А16.07.060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Профессиональная гигиена полости рта и зубов ( сменный прикус ) налет Пристли.</t>
   </si>
   <si>
     <t>ДТ-А25.07.002</t>
@@ -2218,7 +2389,7 @@
     <t>ДТ-А16.07.002.003</t>
   </si>
   <si>
-    <t xml:space="preserve">         Восстановление зуба временного ,  пломбой с нарушением контактного пункта  с использованием стоматологических цементов</t>
+    <t xml:space="preserve">         Восстановление зуба временного ,  пломбой , с нарушением контактного пункта  с использованием стоматологических цементов</t>
   </si>
   <si>
     <t>ДТ-А16.07.002.005</t>
@@ -2239,7 +2410,7 @@
     <t>ДТ-А16.07.002.011</t>
   </si>
   <si>
-    <t xml:space="preserve">         Восстановление зуба временного ,  пломбой с нарушением контактного пункта  с использованием материалов из фотополимеров</t>
+    <t xml:space="preserve">         Восстановление зуба временного ,  пломбой , с нарушением контактного пункта  с использованием материалов из фотополимеров</t>
   </si>
   <si>
     <t>ДТ-А16.07.002.012</t>
@@ -2257,7 +2428,7 @@
     <t>ДТ-А16.07.002.014</t>
   </si>
   <si>
-    <t xml:space="preserve">         Эстетическая реставрация зуба , пациенту детского возраста</t>
+    <t xml:space="preserve">         Эстетическая реставрация зуба , пациенту детского возраста ( временный зуб )</t>
   </si>
   <si>
     <t>ДТ-А16.07.002.015</t>
@@ -2275,13 +2446,13 @@
     <t>ДТ-A16.07.009</t>
   </si>
   <si>
-    <t xml:space="preserve">         ленчение пульпита  временного зуба (включая постоянную пломбу,все манипуляции и материалы ).</t>
+    <t xml:space="preserve">         лечение пульпита  временного зуба (,все манипуляции и материалы ).</t>
   </si>
   <si>
     <t>ДТ-A16.07.010</t>
   </si>
   <si>
-    <t xml:space="preserve">         Экстирпация пульпы</t>
+    <t xml:space="preserve">         лечение пульпита временного зуба ( метод Ампутации )</t>
   </si>
   <si>
     <t>ДТ-А11.07.027</t>
@@ -2345,6 +2516,126 @@
   </si>
   <si>
     <t xml:space="preserve">         Ультразвуковое расширение корневого канала зуба</t>
+  </si>
+  <si>
+    <t>ЛК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Лабораторные конструкции</t>
+  </si>
+  <si>
+    <t>ЛК-А23.07.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Услуги по обслуживанию ортодонтических аппаратов</t>
+  </si>
+  <si>
+    <t>ЛК-А23.07.001.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Коррекция съемного ортодонтического аппарата</t>
+  </si>
+  <si>
+    <t>ЛК-А23.07.001.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ремонт ортодонтического аппарата</t>
+  </si>
+  <si>
+    <t>ЛК-А23.07.001.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Коррекция съемного протеза изготовленного вне данного ЛПУ</t>
+  </si>
+  <si>
+    <t>ЛК-А23.07.002.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Изготовление разборной модели</t>
+  </si>
+  <si>
+    <t>ЛК-А23.07.002.011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Изоляция торуса</t>
+  </si>
+  <si>
+    <t>ЛК-А23.07.002.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Изготовление армированной дуги литой</t>
+  </si>
+  <si>
+    <t>ЛК-А23.07.002.015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Изготовление бюгельного каркаса</t>
+  </si>
+  <si>
+    <t>ЛК-А23.07.002.016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Изготовление огнеупорной модели</t>
+  </si>
+  <si>
+    <t>ЛК-А23.07.002.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Изготовление литого базиса</t>
+  </si>
+  <si>
+    <t>ЛК-А23.07.002.034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Перебазировка съемного протеза лабораторным методом</t>
+  </si>
+  <si>
+    <t>ЛК-А23.07.002.035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Приварка кламмера</t>
+  </si>
+  <si>
+    <t>ЛК-А23.07.002.036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Приварка зуба</t>
+  </si>
+  <si>
+    <t>ЛК-А23.07.002.037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Починка перелома базиса самотвердеющей пластмассой</t>
+  </si>
+  <si>
+    <t>ЛК-А23.07.002.039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Изготовление эластичной прокладки (лабораторный метод)</t>
+  </si>
+  <si>
+    <t>ЛК-А23.07.002.046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Изготовление замкового крепления</t>
+  </si>
+  <si>
+    <t>ЛК-А23.07.002.060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Изготовление пластинки с окклюзионными накладками</t>
+  </si>
+  <si>
+    <t>ЛК-А23.07.002.062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Изготовление полного съемного протеза с фарфоровыми зубами</t>
+  </si>
+  <si>
+    <t>ЛК-А23.07.002.072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Установка крепления в конструкцию съемного протеза при протезировании на имплантатах</t>
   </si>
 </sst>
 </file>
@@ -2813,20 +3104,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C391"/>
+  <dimension ref="A1:C440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A392" sqref="A392:XFD411"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="192.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="192.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2837,7 +3126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2846,7 +3135,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2855,7 +3144,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2864,7 +3153,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2872,10 +3161,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="7">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2886,7 +3175,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2897,7 +3186,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -2905,10 +3194,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -2916,10 +3205,10 @@
         <v>18</v>
       </c>
       <c r="C9" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -2930,7 +3219,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2938,10 +3227,10 @@
         <v>22</v>
       </c>
       <c r="C11" s="7">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -2952,7 +3241,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -2963,7 +3252,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -2971,10 +3260,10 @@
         <v>28</v>
       </c>
       <c r="C14" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -2985,7 +3274,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2994,7 +3283,7 @@
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -3005,7 +3294,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -3016,7 +3305,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -3027,7 +3316,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -3038,7 +3327,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -3046,10 +3335,10 @@
         <v>42</v>
       </c>
       <c r="C21" s="7">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -3057,10 +3346,10 @@
         <v>44</v>
       </c>
       <c r="C22" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -3071,7 +3360,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
@@ -3082,7 +3371,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
@@ -3090,10 +3379,10 @@
         <v>50</v>
       </c>
       <c r="C25" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -3104,7 +3393,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -3115,7 +3404,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
@@ -3126,7 +3415,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -3137,7 +3426,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -3148,7 +3437,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
@@ -3156,10 +3445,10 @@
         <v>62</v>
       </c>
       <c r="C31" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>63</v>
       </c>
@@ -3170,7 +3459,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -3181,7 +3470,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
@@ -3190,7 +3479,7 @@
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>69</v>
       </c>
@@ -3198,10 +3487,10 @@
         <v>70</v>
       </c>
       <c r="C35" s="7">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>71</v>
       </c>
@@ -3209,10 +3498,10 @@
         <v>72</v>
       </c>
       <c r="C36" s="7">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -3220,10 +3509,10 @@
         <v>74</v>
       </c>
       <c r="C37" s="7">
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>75</v>
       </c>
@@ -3231,10 +3520,10 @@
         <v>76</v>
       </c>
       <c r="C38" s="7">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>77</v>
       </c>
@@ -3242,10 +3531,10 @@
         <v>78</v>
       </c>
       <c r="C39" s="7">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
@@ -3253,10 +3542,10 @@
         <v>80</v>
       </c>
       <c r="C40" s="7">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
@@ -3267,7 +3556,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>83</v>
       </c>
@@ -3275,10 +3564,10 @@
         <v>84</v>
       </c>
       <c r="C42" s="7">
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>85</v>
       </c>
@@ -3286,10 +3575,10 @@
         <v>86</v>
       </c>
       <c r="C43" s="7">
-        <v>46000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>87</v>
       </c>
@@ -3297,10 +3586,10 @@
         <v>88</v>
       </c>
       <c r="C44" s="7">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>89</v>
       </c>
@@ -3308,10 +3597,10 @@
         <v>90</v>
       </c>
       <c r="C45" s="7">
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>91</v>
       </c>
@@ -3319,10 +3608,10 @@
         <v>92</v>
       </c>
       <c r="C46" s="7">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>93</v>
       </c>
@@ -3330,10 +3619,10 @@
         <v>94</v>
       </c>
       <c r="C47" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
@@ -3341,10 +3630,10 @@
         <v>96</v>
       </c>
       <c r="C48" s="7">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>97</v>
       </c>
@@ -3355,7 +3644,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>99</v>
       </c>
@@ -3363,10 +3652,10 @@
         <v>100</v>
       </c>
       <c r="C50" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>101</v>
       </c>
@@ -3374,10 +3663,10 @@
         <v>102</v>
       </c>
       <c r="C51" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>103</v>
       </c>
@@ -3385,10 +3674,10 @@
         <v>104</v>
       </c>
       <c r="C52" s="7">
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>105</v>
       </c>
@@ -3396,10 +3685,10 @@
         <v>106</v>
       </c>
       <c r="C53" s="7">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>107</v>
       </c>
@@ -3407,10 +3696,10 @@
         <v>108</v>
       </c>
       <c r="C54" s="7">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>109</v>
       </c>
@@ -3418,10 +3707,10 @@
         <v>110</v>
       </c>
       <c r="C55" s="7">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>111</v>
       </c>
@@ -3429,10 +3718,10 @@
         <v>112</v>
       </c>
       <c r="C56" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>113</v>
       </c>
@@ -3440,30 +3729,30 @@
         <v>114</v>
       </c>
       <c r="C57" s="7">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="7">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="7">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>119</v>
       </c>
@@ -3471,10 +3760,10 @@
         <v>120</v>
       </c>
       <c r="C60" s="7">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>121</v>
       </c>
@@ -3482,1118 +3771,1118 @@
         <v>122</v>
       </c>
       <c r="C61" s="7">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C62" s="7">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="7">
         <v>200000</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="2" t="s">
+    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C63" s="7">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C64" s="7">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="7">
         <v>90000</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" s="6" t="s">
+    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="4"/>
-    </row>
-    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="7">
+      <c r="B67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" s="7">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="2" t="s">
+    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C67" s="7">
+      <c r="B68" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="7">
         <v>1300</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B68" s="2" t="s">
+    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="7">
+      <c r="B69" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C70" s="7">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C71" s="7">
+    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" s="7">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" s="7">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C72" s="7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C73" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C74" s="7">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C75" s="7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C76" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B77" s="6" t="s">
+    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C77" s="4"/>
-    </row>
-    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="B78" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C78" s="7">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="C79" s="7">
         <v>26000</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="C80" s="7">
         <v>28000</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="C81" s="7">
         <v>30000</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="7">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C82" s="7">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="C83" s="7">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C83" s="4"/>
-    </row>
-    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="B84" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="4"/>
+    </row>
+    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C84" s="7">
+      <c r="B85" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" s="7">
         <v>6000</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B85" s="2" t="s">
+    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C85" s="7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="7">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="7">
+      <c r="B87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" s="7">
         <v>2000</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B87" s="2" t="s">
+    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C87" s="7">
+      <c r="B88" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B88" s="2" t="s">
+    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C88" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C89" s="7">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="C90" s="7">
         <v>12000</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="7">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C91" s="7">
+      <c r="B92" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" s="7">
         <v>14000</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B92" s="2" t="s">
+    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C92" s="7">
+      <c r="B93" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" s="7">
         <v>15000</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B93" s="2" t="s">
+    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C93" s="7">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="7">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C94" s="7">
+      <c r="B95" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C95" s="7">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" s="7">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" s="7">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="7">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" s="7">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" s="7">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" s="7">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" s="7">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" s="7">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C104" s="7">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" s="7">
         <v>14000</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C95" s="7">
-        <v>19500</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C96" s="7">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C97" s="7">
-        <v>23500</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="7">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C99" s="7">
-        <v>23500</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C100" s="7">
-        <v>25500</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C101" s="7">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C102" s="7">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C103" s="7">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C104" s="7">
+    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" s="7">
         <v>20000</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C105" s="7">
+    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" s="7">
         <v>16000</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C106" s="7">
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B107" s="2" t="s">
+    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C107" s="7">
-        <v>41000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="C108" s="7">
         <v>41000</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="C109" s="7">
         <v>43000</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="7">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C110" s="7">
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="C111" s="7">
         <v>45000</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="7">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C112" s="7">
-        <v>41000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="7">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C113" s="7">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="7">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C114" s="7">
-        <v>46000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="B115" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="C115" s="7">
         <v>46000</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="C116" s="7">
         <v>48000</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="C117" s="7">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C117" s="7">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C118" s="7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C118" s="7">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="7">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C119" s="7">
+      <c r="B120" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C120" s="7">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C121" s="7">
         <v>4000</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C120" s="7">
+    <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C122" s="7">
         <v>15000</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C121" s="7">
-        <v>41500</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B122" s="2" t="s">
+    <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C122" s="7">
-        <v>42500</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="7">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C123" s="7">
-        <v>43500</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+      <c r="B124" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="7">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C124" s="7">
-        <v>44500</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+      <c r="B125" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="C125" s="7">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C125" s="4"/>
-    </row>
-    <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="C126" s="7">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C126" s="7">
+      <c r="B127" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C127" s="7">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C128" s="4"/>
+    </row>
+    <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C129" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C127" s="7">
+    <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C130" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C128" s="7">
+    <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C131" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C129" s="7">
+    <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C132" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C130" s="7">
+    <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C133" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C131" s="7">
+    <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C134" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C132" s="7">
+    <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C135" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C133" s="7">
+    <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C136" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C134" s="7">
+    <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C137" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C135" s="7">
+    <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C138" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C136" s="7">
+    <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C139" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C137" s="7">
+    <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C140" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C138" s="7">
+    <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C141" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C139" s="7">
+    <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C142" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="C140" s="4"/>
-    </row>
-    <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C141" s="4"/>
-    </row>
-    <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B142" s="2" t="s">
+    <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C142" s="7">
+      <c r="B143" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C143" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C144" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C145" s="4"/>
+    </row>
+    <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C146" s="4"/>
+    </row>
+    <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C147" s="7">
         <v>52000</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C143" s="7">
+    <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C148" s="7">
         <v>57000</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C144" s="7">
+    <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C149" s="7">
         <v>15000</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C145" s="7">
+    <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C150" s="7">
         <v>7000</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C146" s="7">
+    <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C151" s="7">
         <v>45000</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C147" s="7">
+    <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C152" s="7">
         <v>42000</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C148" s="7">
+    <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C153" s="7">
         <v>6000</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C149" s="7">
+    <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C154" s="7">
         <v>9500</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C150" s="7">
+    <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C155" s="7">
         <v>10000</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C151" s="4"/>
-    </row>
-    <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C152" s="7">
+    <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C156" s="4"/>
+    </row>
+    <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C157" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C158" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C159" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C160" s="7">
         <v>7000</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C153" s="7">
+    <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C161" s="7">
         <v>15000</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C154" s="7">
+    <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C162" s="7">
         <v>20000</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C155" s="7">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C156" s="7">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C157" s="7">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C158" s="7">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C159" s="7">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C160" s="7">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C161" s="7">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B162" s="2" t="s">
+    <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="C162" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>323</v>
       </c>
       <c r="C163" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>324</v>
       </c>
@@ -4601,10 +4890,10 @@
         <v>325</v>
       </c>
       <c r="C164" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>326</v>
       </c>
@@ -4612,10 +4901,10 @@
         <v>327</v>
       </c>
       <c r="C165" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>328</v>
       </c>
@@ -4623,10 +4912,10 @@
         <v>329</v>
       </c>
       <c r="C166" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>330</v>
       </c>
@@ -4634,10 +4923,10 @@
         <v>331</v>
       </c>
       <c r="C167" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>332</v>
       </c>
@@ -4645,10 +4934,10 @@
         <v>333</v>
       </c>
       <c r="C168" s="7">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>334</v>
       </c>
@@ -4656,10 +4945,10 @@
         <v>335</v>
       </c>
       <c r="C169" s="7">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>336</v>
       </c>
@@ -4667,937 +4956,937 @@
         <v>337</v>
       </c>
       <c r="C170" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C171" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C172" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C173" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C174" s="7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C175" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C176" s="7">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C177" s="7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C178" s="7">
         <v>2000</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C171" s="7">
+    <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C179" s="7">
         <v>3000</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C172" s="7">
+    <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C180" s="7">
         <v>4000</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C173" s="7">
+    <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C181" s="7">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C182" s="7">
         <v>8000</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C174" s="7">
+    <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C183" s="7">
         <v>1500</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C175" s="7">
+    <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C184" s="7">
         <v>3000</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C176" s="7">
+    <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C185" s="7">
         <v>1500</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C177" s="7">
+    <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C186" s="7">
         <v>3000</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C178" s="7">
+    <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C187" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C179" s="7">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C180" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C181" s="7">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C182" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C183" s="7">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C184" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C185" s="7">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C186" s="7">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B187" s="2" t="s">
+    <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C187" s="7">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
+      <c r="B188" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="C188" s="7">
         <v>15000</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="C189" s="7">
         <v>5000</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="C190" s="7">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C190" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
+      <c r="B191" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="C191" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C191" s="7">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
+      <c r="B192" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="C192" s="7">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C192" s="7">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
+      <c r="B193" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="C193" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C193" s="7">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
+      <c r="B194" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="C194" s="7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C194" s="7">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
+      <c r="B195" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="C195" s="7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C195" s="7">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
+      <c r="B196" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="C196" s="7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C196" s="7">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
+      <c r="B197" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="C197" s="7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C197" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
+      <c r="B198" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="C198" s="7">
         <v>5000</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="C199" s="7">
         <v>5000</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="C200" s="7">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C200" s="7">
+      <c r="B201" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C201" s="7">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C202" s="7">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C203" s="7">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C204" s="7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C205" s="7">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C206" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C207" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C208" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C209" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C201" s="7">
+    <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C210" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
+    <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C211" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C212" s="7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C213" s="7">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C214" s="4"/>
+    </row>
+    <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C215" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C216" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C217" s="7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C218" s="7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C219" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C220" s="7">
         <v>400</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C202" s="7">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C203" s="7">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C204" s="7">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="C205" s="4"/>
-    </row>
-    <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C206" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C207" s="7">
+    </row>
+    <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C221" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C208" s="7">
+    <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C222" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C223" s="7">
         <v>2500</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C209" s="7">
+    <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C224" s="7">
         <v>2500</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C210" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C211" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C212" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C213" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C214" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C215" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C216" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C217" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C218" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C219" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="C220" s="4"/>
-    </row>
-    <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="C221" s="4"/>
-    </row>
-    <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C222" s="7">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C223" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B224" s="2" t="s">
+    <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="C224" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>446</v>
       </c>
       <c r="C225" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C226" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C227" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C228" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C229" s="4"/>
+    </row>
+    <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C230" s="4"/>
+    </row>
+    <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C231" s="7">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C232" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C233" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C229" s="7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C230" s="7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C231" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C232" s="7">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B233" s="2" t="s">
+    <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="C233" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>463</v>
       </c>
       <c r="C234" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C235" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C236" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C237" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C238" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C239" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C240" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C241" s="7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C242" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C243" s="7">
         <v>8000</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C235" s="7">
+    <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C244" s="7">
         <v>12000</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C236" s="7">
+    <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C245" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C237" s="7">
+    <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C246" s="7">
         <v>600</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C238" s="7">
+    <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C247" s="7">
         <v>9000</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C239" s="7">
+    <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C248" s="7">
         <v>8800</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C240" s="7">
+    <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C249" s="7">
         <v>9300</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="C241" s="4"/>
-    </row>
-    <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C242" s="7">
+    <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C250" s="7">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C251" s="4"/>
+    </row>
+    <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C252" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C243" s="7">
+    <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C253" s="7">
         <v>3500</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C244" s="7">
+    <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C254" s="7">
         <v>2500</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C245" s="7">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C246" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C247" s="7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C248" s="7">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C249" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C250" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C251" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C252" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="C253" s="7">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B254" s="2" t="s">
+    <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="C254" s="7">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>504</v>
       </c>
       <c r="C255" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>505</v>
       </c>
@@ -5605,10 +5894,10 @@
         <v>506</v>
       </c>
       <c r="C256" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>507</v>
       </c>
@@ -5616,10 +5905,10 @@
         <v>508</v>
       </c>
       <c r="C257" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>509</v>
       </c>
@@ -5627,10 +5916,10 @@
         <v>510</v>
       </c>
       <c r="C258" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>511</v>
       </c>
@@ -5638,10 +5927,10 @@
         <v>512</v>
       </c>
       <c r="C259" s="7">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>513</v>
       </c>
@@ -5649,10 +5938,10 @@
         <v>514</v>
       </c>
       <c r="C260" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>515</v>
       </c>
@@ -5660,10 +5949,10 @@
         <v>516</v>
       </c>
       <c r="C261" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>517</v>
       </c>
@@ -5674,7 +5963,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>519</v>
       </c>
@@ -5682,1178 +5971,1180 @@
         <v>520</v>
       </c>
       <c r="C263" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B264" s="6" t="s">
+      <c r="B264" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C264" s="4"/>
-    </row>
-    <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C264" s="7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="C265" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="C265" s="7">
+      <c r="B266" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C266" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C267" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C268" s="7">
         <v>400</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C266" s="7">
+    <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C269" s="7">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C270" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C271" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C272" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C273" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C274" s="4"/>
+    </row>
+    <row r="275" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C275" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C276" s="7">
         <v>600</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C267" s="7">
+    <row r="277" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C277" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="B268" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="C268" s="4"/>
-    </row>
-    <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="C269" s="7">
+    <row r="278" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C278" s="4"/>
+    </row>
+    <row r="279" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C279" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C270" s="7">
+    <row r="280" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C280" s="7">
         <v>6000</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C271" s="7">
+    <row r="281" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C281" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B272" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="C272" s="4"/>
-    </row>
-    <row r="273" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C273" s="7">
+    <row r="282" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C282" s="4"/>
+    </row>
+    <row r="283" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C283" s="7">
         <v>1200</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="C274" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="C275" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C276" s="7">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C277" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C278" s="7">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="C279" s="7">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C280" s="7">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="C281" s="7">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="C282" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="B283" s="2" t="s">
+    <row r="284" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C283" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="2" t="s">
+      <c r="B284" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="C284" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="C285" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="C285" s="7">
+      <c r="B286" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C286" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C287" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C288" s="7">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C289" s="7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C290" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C291" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C292" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C293" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="C286" s="7">
+    <row r="294" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C294" s="7">
         <v>1500</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="C287" s="4"/>
-    </row>
-    <row r="288" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="C288" s="7">
+    <row r="295" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="C295" s="4"/>
+    </row>
+    <row r="296" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C296" s="7">
         <v>10800</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="C289" s="7">
+    <row r="297" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C297" s="7">
         <v>13300</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C290" s="7">
+    <row r="298" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C298" s="7">
         <v>18600</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="C291" s="7">
+    <row r="299" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C299" s="7">
         <v>20600</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="C292" s="7">
+    <row r="300" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C300" s="7">
         <v>12000</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C293" s="7">
+    <row r="301" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C301" s="7">
         <v>17000</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C294" s="7">
+    <row r="302" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C302" s="7">
         <v>23900</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="C295" s="7">
+    <row r="303" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C303" s="7">
         <v>26000</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="B296" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="C296" s="4"/>
-    </row>
-    <row r="297" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="C297" s="7">
+    <row r="304" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="C304" s="4"/>
+    </row>
+    <row r="305" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C305" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C306" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C307" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C308" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C309" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C310" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C311" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C312" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C313" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C314" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C315" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C316" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C317" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C318" s="4"/>
+    </row>
+    <row r="319" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C319" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="C298" s="7">
+    <row r="320" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C320" s="7">
         <v>800</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="C299" s="7">
+    <row r="321" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C321" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="C300" s="7">
+    <row r="322" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C322" s="7">
         <v>150</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="C301" s="7">
+    <row r="323" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C323" s="7">
         <v>600</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="C302" s="7">
+    <row r="324" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C324" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="C303" s="7">
+    <row r="325" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C325" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="C304" s="7">
+    <row r="326" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C326" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="B305" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="C305" s="4"/>
-    </row>
-    <row r="306" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C306" s="7">
+    <row r="327" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="C327" s="4"/>
+    </row>
+    <row r="328" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C328" s="7">
         <v>2000</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C307" s="7">
+    <row r="329" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C329" s="7">
         <v>6000</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="C308" s="7">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="C309" s="7">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="C310" s="7">
+    <row r="330" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C330" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C331" s="7">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C332" s="7">
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A333" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C333" s="7">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C334" s="7">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C335" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C336" s="7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C337" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C338" s="7">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C339" s="7">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C340" s="7">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C341" s="7">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C342" s="7">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C343" s="7">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C344" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C345" s="7">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="C346" s="7">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C347" s="7">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C348" s="7">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C349" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C350" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A351" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C351" s="7">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="C352" s="7">
         <v>30000</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="C311" s="7">
+    <row r="353" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A353" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C353" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C354" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C355" s="7">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C356" s="7">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A357" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C357" s="7">
         <v>37000</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="C312" s="7">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="C313" s="7">
-        <v>4350</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="C314" s="7">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="C315" s="7">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="C316" s="7">
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="C317" s="7">
-        <v>218800</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="C318" s="7">
-        <v>238800</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="C319" s="7">
-        <v>248800</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="C320" s="7">
-        <v>265800</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="C321" s="7">
+    <row r="358" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A358" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C358" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="C359" s="4"/>
+    </row>
+    <row r="360" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A360" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C360" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C361" s="7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C362" s="7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C363" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C364" s="7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C365" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C366" s="7">
         <v>3000</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="C322" s="7">
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="C323" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="C324" s="7">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="C325" s="7">
-        <v>239800</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C326" s="7">
-        <v>259800</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="C327" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="C328" s="7">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="C329" s="7">
-        <v>22500</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="C330" s="7">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="C331" s="7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="C332" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="C333" s="7">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="C334" s="7">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="C335" s="7">
-        <v>37000</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="C336" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="B337" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="C337" s="4"/>
-    </row>
-    <row r="338" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="C338" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C339" s="7">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="B340" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="C340" s="7">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C341" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="C342" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="C343" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="C344" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="C345" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="C346" s="7">
-        <v>6800</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="C347" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="C348" s="7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="B349" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="C349" s="4"/>
-    </row>
-    <row r="350" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="B350" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="C350" s="4"/>
-    </row>
-    <row r="351" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="B351" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="C351" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="C352" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="C353" s="7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="C354" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="C355" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="C356" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="C357" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="C358" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="C359" s="7">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="C360" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="C361" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="C362" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="C363" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="C364" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="B365" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="C365" s="4"/>
-    </row>
-    <row r="366" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="B366" s="2" t="s">
+    <row r="367" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A367" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="C366" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="2" t="s">
+      <c r="B367" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="B367" s="2" t="s">
-        <v>728</v>
       </c>
       <c r="C367" s="7">
         <v>3000</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B368" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="C368" s="7">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="C368" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="2" t="s">
+      <c r="B369" s="2" t="s">
         <v>731</v>
-      </c>
-      <c r="B369" s="2" t="s">
-        <v>732</v>
       </c>
       <c r="C369" s="7">
         <v>2500</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B370" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="B370" s="2" t="s">
+      <c r="C370" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="C370" s="7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="2" t="s">
+      <c r="B371" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="B371" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="C371" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C371" s="4"/>
+    </row>
+    <row r="372" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
         <v>736</v>
       </c>
@@ -6861,10 +7152,10 @@
         <v>737</v>
       </c>
       <c r="C372" s="7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
         <v>738</v>
       </c>
@@ -6872,10 +7163,10 @@
         <v>739</v>
       </c>
       <c r="C373" s="7">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
         <v>740</v>
       </c>
@@ -6883,10 +7174,10 @@
         <v>741</v>
       </c>
       <c r="C374" s="7">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
         <v>742</v>
       </c>
@@ -6894,10 +7185,10 @@
         <v>743</v>
       </c>
       <c r="C375" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
         <v>744</v>
       </c>
@@ -6905,21 +7196,19 @@
         <v>745</v>
       </c>
       <c r="C376" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B377" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="C377" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C377" s="4"/>
+    </row>
+    <row r="378" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
         <v>748</v>
       </c>
@@ -6928,7 +7217,7 @@
       </c>
       <c r="C378" s="4"/>
     </row>
-    <row r="379" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
         <v>750</v>
       </c>
@@ -6936,10 +7225,10 @@
         <v>751</v>
       </c>
       <c r="C379" s="7">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
         <v>752</v>
       </c>
@@ -6947,10 +7236,10 @@
         <v>753</v>
       </c>
       <c r="C380" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
         <v>754</v>
       </c>
@@ -6958,10 +7247,10 @@
         <v>755</v>
       </c>
       <c r="C381" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
         <v>756</v>
       </c>
@@ -6969,10 +7258,10 @@
         <v>757</v>
       </c>
       <c r="C382" s="7">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
         <v>758</v>
       </c>
@@ -6980,10 +7269,10 @@
         <v>759</v>
       </c>
       <c r="C383" s="7">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>760</v>
       </c>
@@ -6991,10 +7280,10 @@
         <v>761</v>
       </c>
       <c r="C384" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
         <v>762</v>
       </c>
@@ -7002,10 +7291,10 @@
         <v>763</v>
       </c>
       <c r="C385" s="7">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
         <v>764</v>
       </c>
@@ -7013,10 +7302,10 @@
         <v>765</v>
       </c>
       <c r="C386" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>766</v>
       </c>
@@ -7024,55 +7313,588 @@
         <v>767</v>
       </c>
       <c r="C387" s="7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>768</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>504</v>
+        <v>769</v>
       </c>
       <c r="C388" s="7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C389" s="7">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C390" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C391" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C392" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C393" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B394" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="C394" s="4"/>
+    </row>
+    <row r="395" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A395" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C395" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A396" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C396" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A397" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C397" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A398" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C398" s="7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A399" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C399" s="7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A400" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C400" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C401" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C402" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C403" s="7">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A404" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C404" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A405" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C405" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A406" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C406" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A407" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B407" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="C407" s="4"/>
+    </row>
+    <row r="408" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C408" s="7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A409" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C409" s="7">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A410" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C410" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A411" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C411" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A412" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C412" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A413" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C413" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C414" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C415" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C416" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A417" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C417" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="B389" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="C389" s="7">
+    <row r="418" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A418" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C418" s="7">
         <v>1500</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="C390" s="7">
+    <row r="419" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A419" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C419" s="7">
         <v>2000</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="B391" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="C391" s="7">
+    <row r="420" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C420" s="7">
         <v>1500</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="C421" s="4"/>
+    </row>
+    <row r="422" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C422" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C423" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="C424" s="7">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="C425" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C426" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C427" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="C428" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C429" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C430" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="C431" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="C432" s="7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C433" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="C434" s="7">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C435" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C436" s="7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C437" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C438" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="C439" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C440" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>